--- a/reports/MPM_errors_results.xlsx
+++ b/reports/MPM_errors_results.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendall/Documents/Github/MPM-errors/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{CF704F99-054E-4742-840C-D0BAD0F1350C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AE638977-6024-9B4A-9279-998B191B3817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="12460" windowWidth="28040" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="12700" windowWidth="28040" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="Z_F62F7674_6627_1A45_867D_D051D69B4567_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$J:$N,Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="Bruce Kendall - Personal View" guid="{F62F7674-6627-1A45-867D-D051D69B4567}" mergeInterval="0" personalView="1" xWindow="150" yWindow="623" windowWidth="1402" windowHeight="762" activeSheetId="1"/>
+    <customWorkbookView name="Bruce Kendall - Personal View" guid="{F62F7674-6627-1A45-867D-D051D69B4567}" mergeInterval="0" personalView="1" xWindow="26" yWindow="635" windowWidth="1402" windowHeight="762" activeSheetId="1"/>
     <customWorkbookView name="MPIDR_D\sschneider - Personal View" guid="{C7BF54E7-7AD6-469C-91D0-7BE53A5838CE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="838" activeSheetId="1"/>
     <customWorkbookView name="Voigt, Jakob - Personal View" guid="{1A4C78E0-9C34-4C40-8724-0615D8B3D4B6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="799" activeSheetId="1"/>
     <customWorkbookView name="Schneider, Sandra - Personal View" guid="{90792003-46AF-4948-93D1-57EEFFDB86F0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="838" activeSheetId="1"/>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="581">
   <si>
     <t>CompadrinoName</t>
   </si>
@@ -65,6 +68,9 @@
     <t>Post</t>
   </si>
   <si>
+    <t>Post+</t>
+  </si>
+  <si>
     <t>SurvInRep</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
     <t>Cohort</t>
   </si>
   <si>
-    <t>Observed</t>
-  </si>
-  <si>
     <t>CensusTypeObs</t>
   </si>
   <si>
@@ -1251,9 +1254,6 @@
   </si>
   <si>
     <t>Zuniga-Vega; Mendez-de la Cruz; Cuellar</t>
-  </si>
-  <si>
-    <t>Stages and values differ from those in the paper (p.240 Table 1); can't see where the compadrino got the age-classes from</t>
   </si>
   <si>
     <t>1580m food</t>
@@ -1732,6 +1732,48 @@
   </si>
   <si>
     <t>Multiple</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Observed-CMR</t>
+  </si>
+  <si>
+    <t>No Fecundity</t>
+  </si>
+  <si>
+    <t>Unclear whether the comadre matrix came from authors or reconstructed by compdrinos</t>
+  </si>
+  <si>
+    <t>Uses matrix from Babcock</t>
+  </si>
+  <si>
+    <t>Unkown</t>
+  </si>
+  <si>
+    <t>AAS</t>
+  </si>
+  <si>
+    <t>Values in comadre inconsistent with description in text; probably reconstituted (incorrectly) from life table. Impossible to guess original matrix details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1890/08-2060.1 </t>
+  </si>
+  <si>
+    <t>Multple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.jstor.org/stable/2265795 </t>
+  </si>
+  <si>
+    <t>Probably was a matrix; but can't tell what it was. Stages and values differ from those in the paper (p.240 Table 1); can't see where the compadrino got the age-classes from</t>
+  </si>
+  <si>
+    <t>Crouse</t>
+  </si>
+  <si>
+    <t>https://www.jstor.org/stable/3830713</t>
   </si>
 </sst>
 </file>
@@ -1745,7 +1787,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2033,6 +2075,11 @@
       <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Code2000"/>
     </font>
   </fonts>
   <fills count="57">
@@ -3143,7 +3190,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3169,6 +3216,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="577">
     <cellStyle name=".000" xfId="42" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3763,7 +3814,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{C5DA09AF-521B-3D4B-9E13-AA9F9502B82D}" diskRevisions="1" revisionId="4672" version="7">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{793A0E0B-5B7C-5D4D-9067-8B5CCDB21940}" diskRevisions="1" revisionId="4916" version="12">
   <header guid="{6C897539-DEE9-47EE-9B0E-62AFDFB5BFB6}" dateTime="2018-08-03T15:18:11" maxSheetId="2" userName="MPIDR_D\sschneider" r:id="rId28" minRId="887" maxRId="896">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -4404,6 +4455,31 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{75E88089-599C-2745-8F34-55E2E82687D5}" dateTime="2018-08-30T10:06:28" maxSheetId="2" userName="Bruce Kendall" r:id="rId156" minRId="4673" maxRId="4699">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6DC14C61-948B-2745-BB9D-8F1449D3536B}" dateTime="2018-08-30T10:23:25" maxSheetId="2" userName="Bruce Kendall" r:id="rId157" minRId="4700" maxRId="4711">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{48803D0D-86F7-B644-ABB3-7183FFFE6AFC}" dateTime="2018-08-30T14:44:32" maxSheetId="2" userName="Bruce Kendall" r:id="rId158" minRId="4713" maxRId="4863">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{6F20699C-0A4E-6146-8E7B-B45870AC7ACC}" dateTime="2018-08-30T15:49:22" maxSheetId="2" userName="Bruce Kendall" r:id="rId159" minRId="4865" maxRId="4902">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{793A0E0B-5B7C-5D4D-9067-8B5CCDB21940}" dateTime="2018-08-30T16:01:49" maxSheetId="2" userName="Bruce Kendall" r:id="rId160" minRId="4903" maxRId="4916">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -24155,6 +24231,385 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog129.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4673" sId="1">
+    <nc r="U91" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4674" sId="1">
+    <nc r="W91" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4675" sId="1">
+    <nc r="AC91" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4676" sId="1">
+    <nc r="U34" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U34">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4677" sId="1">
+    <nc r="W34" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W34">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4678" sId="1">
+    <nc r="AC34" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC34">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4679" sId="1">
+    <nc r="AE34" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE34">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4680" sId="1">
+    <nc r="AE91" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE91">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="4681" sId="1">
+    <nc r="U15" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4682" sId="1">
+    <nc r="W15" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4683" sId="1">
+    <nc r="AC15" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4684" sId="1">
+    <nc r="AE15" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE15">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4685" sId="1">
+    <nc r="U112" t="inlineStr">
+      <is>
+        <t>Post+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U112">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4686" sId="1">
+    <nc r="W112" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W112">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4687" sId="1">
+    <nc r="AC112" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC112">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4688" sId="1">
+    <nc r="AE112" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE112">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4689" sId="1">
+    <nc r="U9" t="inlineStr">
+      <is>
+        <t>Open</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U9">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4690" sId="1">
+    <nc r="W9" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W9">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4691" sId="1">
+    <nc r="AC9" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC9">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4692" sId="1">
+    <nc r="AE9" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE9">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4693" sId="1">
+    <nc r="AK9" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4694" sId="1">
+    <oc r="AK4" t="inlineStr">
+      <is>
+        <t>Observed</t>
+      </is>
+    </oc>
+    <nc r="AK4" t="inlineStr">
+      <is>
+        <t>Observed-CMR</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4695" sId="1">
+    <nc r="U22" t="inlineStr">
+      <is>
+        <t>No Fecundity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U22">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4696" sId="1">
+    <nc r="W22" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4697" sId="1">
+    <nc r="AC22" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4698" sId="1">
+    <nc r="AE22" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4699" sId="1">
+    <nc r="AK22" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1599" sId="1">
@@ -24278,6 +24733,2776 @@
     <nc r="AI47" t="inlineStr">
       <is>
         <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog130.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4700" sId="1">
+    <nc r="U82" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U82">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4701" sId="1">
+    <nc r="W82" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W82">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4702" sId="1">
+    <nc r="AC82" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC82">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4703" sId="1">
+    <nc r="AE82" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE82">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4704" sId="1">
+    <nc r="U94" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U94">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4705" sId="1">
+    <nc r="W94" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W94">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4706" sId="1">
+    <nc r="AC94" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC94">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4707" sId="1">
+    <nc r="AE94" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE94">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4708" sId="1">
+    <nc r="U63" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U63">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4709" sId="1">
+    <nc r="W63" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W63">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4710" sId="1">
+    <nc r="AC63" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC63">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4711" sId="1">
+    <nc r="AE63" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE63">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcv guid="{F62F7674-6627-1A45-867D-D051D69B4567}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F62F7674_6627_1A45_867D_D051D69B4567_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Sheet1!$I:$N,Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</formula>
+  </rdn>
+  <rcv guid="{F62F7674-6627-1A45-867D-D051D69B4567}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog131.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4713" sId="1">
+    <nc r="U115" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U115">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4714" sId="1">
+    <nc r="W115" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W115">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4715" sId="1">
+    <nc r="AC115" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC115">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4716" sId="1">
+    <nc r="AE115" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE115">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4717" sId="1">
+    <nc r="U121" t="inlineStr">
+      <is>
+        <t>Post+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U121">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4718" sId="1">
+    <nc r="W121" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W121">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4719" sId="1">
+    <nc r="AC121" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC121">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4720" sId="1">
+    <nc r="AE121" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE121">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4721" sId="1">
+    <nc r="U117" t="inlineStr">
+      <is>
+        <t>No Fecundity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U117">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4722" sId="1">
+    <nc r="W117" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W117">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4723" sId="1">
+    <nc r="AC117" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC117">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4724" sId="1">
+    <nc r="AE117" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE117">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4725" sId="1">
+    <nc r="AK117" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4726" sId="1">
+    <nc r="U106" t="inlineStr">
+      <is>
+        <t>No Fecundity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U106">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4727" sId="1">
+    <nc r="W106" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W106">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4728" sId="1">
+    <nc r="AC106" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC106">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4729" sId="1">
+    <nc r="AE106" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE106">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4730" sId="1">
+    <nc r="AK106" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4731" sId="1">
+    <oc r="O119" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </oc>
+    <nc r="O119" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4732" sId="1">
+    <oc r="O65" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </oc>
+    <nc r="O65" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4733" sId="1">
+    <nc r="P65" t="inlineStr">
+      <is>
+        <t>Unclear whether the comadre matrix came from authors or reconstructed by compdrinos</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4734" sId="1">
+    <nc r="U24" t="inlineStr">
+      <is>
+        <t>Post+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4735" sId="1">
+    <nc r="W24" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4736" sId="1">
+    <nc r="AC24" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4737" sId="1">
+    <nc r="AE24" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4738" sId="1">
+    <nc r="U18" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4739" sId="1">
+    <nc r="W18" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4740" sId="1">
+    <nc r="AC18" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4741" sId="1">
+    <nc r="AE18" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4742" sId="1">
+    <nc r="U98" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4743" sId="1">
+    <nc r="W98" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4744" sId="1">
+    <nc r="AC98" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4745" sId="1">
+    <nc r="AE98" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4746" sId="1">
+    <nc r="U49" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4747" sId="1">
+    <nc r="W49" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4748" sId="1">
+    <oc r="O49" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </oc>
+    <nc r="O49" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4749" sId="1">
+    <nc r="P49" t="inlineStr">
+      <is>
+        <t>Uses matrix from Babcock</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4750" sId="1">
+    <nc r="U66" t="inlineStr">
+      <is>
+        <t>Post+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4751" sId="1">
+    <nc r="W66" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4752" sId="1">
+    <nc r="AC66" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4753" sId="1">
+    <nc r="AE66" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4754" sId="1">
+    <nc r="U57" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4755" sId="1">
+    <nc r="W57" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4756" sId="1">
+    <nc r="AC57" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4757" sId="1">
+    <nc r="AE57" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4758" sId="1">
+    <nc r="U54" t="inlineStr">
+      <is>
+        <t>No Fecundity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4759" sId="1">
+    <nc r="W54" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4760" sId="1">
+    <nc r="AC54" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4761" sId="1">
+    <nc r="AE54" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4762" sId="1">
+    <nc r="AK54" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4763" sId="1">
+    <nc r="U96" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4764" sId="1">
+    <nc r="W96" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4765" sId="1">
+    <nc r="AC96" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4766" sId="1">
+    <nc r="AE96" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4767" sId="1">
+    <nc r="U50" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4768" sId="1">
+    <nc r="W50" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4769" sId="1">
+    <nc r="AC50" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4770" sId="1">
+    <nc r="AE50" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4771" sId="1">
+    <nc r="AK50" t="inlineStr">
+      <is>
+        <t>Unrolled</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4772" sId="1">
+    <nc r="U108" t="inlineStr">
+      <is>
+        <t>Post+</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4773" sId="1">
+    <nc r="W108" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4774" sId="1">
+    <nc r="AC108" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4775" sId="1">
+    <nc r="AE108" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4776" sId="1">
+    <nc r="U55" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4777" sId="1">
+    <nc r="W55" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W55">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4778" sId="1">
+    <nc r="AC55" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4779" sId="1">
+    <nc r="AE55" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4780" sId="1">
+    <nc r="AK55" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4781" sId="1">
+    <nc r="U75" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4782" sId="1">
+    <nc r="W75" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4783" sId="1">
+    <nc r="AC75" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4784" sId="1">
+    <nc r="AE75" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4785" sId="1">
+    <nc r="U100" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U100">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="W100">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4786" sId="1">
+    <nc r="W100" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4787" sId="1">
+    <nc r="AC100" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC100">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4788" sId="1">
+    <nc r="AE100" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE100">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4789" sId="1">
+    <nc r="AK100" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4790" sId="1">
+    <nc r="U64" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U64">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4791" sId="1">
+    <nc r="W64" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W64">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4792" sId="1">
+    <nc r="AC64" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC64">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4793" sId="1">
+    <nc r="AE64" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE64">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4794" sId="1">
+    <nc r="AK64" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U76">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="U76">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4795" sId="1">
+    <nc r="U76" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4796" sId="1">
+    <nc r="W76" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W76">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="W76">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4797" sId="1">
+    <nc r="AC76" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC76">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4798" sId="1">
+    <nc r="AE76" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE76">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4799" sId="1">
+    <nc r="AK76" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4800" sId="1">
+    <nc r="U95" t="inlineStr">
+      <is>
+        <t>No Fecundity</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U95">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4801" sId="1">
+    <nc r="W95" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W95">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4802" sId="1">
+    <nc r="AC95" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC95">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4803" sId="1">
+    <nc r="AE95" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE95">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4804" sId="1">
+    <nc r="AK95" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AK95">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="H25">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="4805" sId="1">
+    <nc r="U25" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U25">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4806" sId="1">
+    <nc r="W25" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W25">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4807" sId="1">
+    <nc r="AC25" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC25">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4808" sId="1">
+    <nc r="AE25" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE25">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4809" sId="1">
+    <nc r="U74" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U74">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="U74">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4810" sId="1">
+    <nc r="W74" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W74">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="W74">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4811" sId="1">
+    <nc r="AC74" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC74">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4812" sId="1">
+    <nc r="AE74" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE74">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4813" sId="1">
+    <nc r="AK74" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4814" sId="1">
+    <nc r="U118" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U118">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4815" sId="1">
+    <nc r="W118" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W118">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4816" sId="1">
+    <nc r="AC118" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC118">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4817" sId="1">
+    <nc r="AE118" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE118">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4818" sId="1">
+    <nc r="U17" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4819" sId="1">
+    <nc r="W17" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4820" sId="1">
+    <nc r="AC17" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4821" sId="1">
+    <nc r="AE17" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE17">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4822" sId="1">
+    <nc r="U16" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U16">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4823" sId="1">
+    <nc r="W16" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4824" sId="1">
+    <nc r="AC16" t="inlineStr">
+      <is>
+        <t>Unkown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4825" sId="1">
+    <nc r="AE16" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE16">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4826" sId="1">
+    <nc r="AK16" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4827" sId="1">
+    <nc r="U105" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U105">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4828" sId="1">
+    <nc r="W105" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W105">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4829" sId="1">
+    <nc r="AC105" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC105">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4830" sId="1">
+    <nc r="AE105" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE105">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4831" sId="1">
+    <nc r="AK105" t="inlineStr">
+      <is>
+        <t>AAS</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4832" sId="1">
+    <nc r="U69" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U69">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4833" sId="1">
+    <nc r="W69" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W69">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4834" sId="1">
+    <nc r="AC69" t="inlineStr">
+      <is>
+        <t>Unkown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC69">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4835" sId="1">
+    <nc r="AE69" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE69">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4836" sId="1">
+    <nc r="U56" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U56">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="U56">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4837" sId="1">
+    <nc r="W56" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W56">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="1" sqref="W56">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4838" sId="1">
+    <nc r="AC56" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC56">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4839" sId="1">
+    <nc r="AE56" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE56">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4840" sId="1">
+    <nc r="U31" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U31">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4841" sId="1">
+    <nc r="W31" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W31">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4842" sId="1">
+    <nc r="AC31" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC31">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4843" sId="1">
+    <nc r="AE31" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE31">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4844" sId="1">
+    <oc r="O110" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </oc>
+    <nc r="O110" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4845" sId="1">
+    <nc r="P110" t="inlineStr">
+      <is>
+        <t>Values in comadre inconsistent with description in text; probably reconstituted (incorrectly) from life table. Impossible to guess original matrix details</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="H89">
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+  </rfmt>
+  <rcc rId="4846" sId="1">
+    <nc r="U89" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4847" sId="1">
+    <nc r="W89" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4848" sId="1">
+    <nc r="AC89" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4849" sId="1">
+    <nc r="AE89" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4850" sId="1">
+    <nc r="U28" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4851" sId="1">
+    <nc r="W28" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4852" sId="1">
+    <nc r="AC28" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4853" sId="1">
+    <nc r="AE28" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE28">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4854" sId="1">
+    <nc r="U10" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4855" sId="1">
+    <nc r="W10" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4856" sId="1">
+    <nc r="AC10" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4857" sId="1">
+    <nc r="AE10" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE10">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4858" sId="1" xfDxf="1" dxf="1">
+    <oc r="M103" t="inlineStr">
+      <is>
+        <t>NoC</t>
+      </is>
+    </oc>
+    <nc r="M103" t="inlineStr">
+      <is>
+        <t xml:space="preserve">10.1890/08-2060.1 </t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4859" sId="1">
+    <nc r="U103" t="inlineStr">
+      <is>
+        <t>Open</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U103">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4860" sId="1">
+    <nc r="W103" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="W103">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4861" sId="1">
+    <nc r="AC103" t="inlineStr">
+      <is>
+        <t>Not Applicable</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AC103">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4862" sId="1">
+    <nc r="AE103" t="inlineStr">
+      <is>
+        <t>Multple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="AE103">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4863" sId="1">
+    <nc r="AK103" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F62F7674-6627-1A45-867D-D051D69B4567}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F62F7674_6627_1A45_867D_D051D69B4567_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Sheet1!$J:$N,Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</formula>
+    <oldFormula>Sheet1!$I:$N,Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</oldFormula>
+  </rdn>
+  <rcv guid="{F62F7674-6627-1A45-867D-D051D69B4567}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog132.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4865" sId="1" xfDxf="1" dxf="1">
+    <oc r="M35" t="inlineStr">
+      <is>
+        <t>NoC</t>
+      </is>
+    </oc>
+    <nc r="M35" t="inlineStr">
+      <is>
+        <t xml:space="preserve">https://www.jstor.org/stable/2265795 </t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Code2000"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="4866" sId="1">
+    <oc r="O35" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O35" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4867" sId="1">
+    <nc r="U59" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4868" sId="1">
+    <nc r="W59" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4869" sId="1">
+    <nc r="AC59" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4870" sId="1">
+    <nc r="AE59" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4871" sId="1">
+    <nc r="U11" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4872" sId="1">
+    <nc r="W11" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4873" sId="1">
+    <nc r="AE11" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4874" sId="1">
+    <nc r="U20" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4875" sId="1">
+    <nc r="W20" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4876" sId="1">
+    <nc r="AC20" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4877" sId="1">
+    <nc r="AE20" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4878" sId="1">
+    <nc r="AC11" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4879" sId="1">
+    <nc r="U58" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U58">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4880" sId="1">
+    <nc r="W58" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4881" sId="1">
+    <nc r="AC58" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4882" sId="1">
+    <nc r="AE58" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4883" sId="1">
+    <nc r="AK58" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4884" sId="1">
+    <oc r="O53" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O53" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4885" sId="1">
+    <oc r="P53" t="inlineStr">
+      <is>
+        <t>Stages and values differ from those in the paper (p.240 Table 1); can't see where the compadrino got the age-classes from</t>
+      </is>
+    </oc>
+    <nc r="P53" t="inlineStr">
+      <is>
+        <t>Probably was a matrix; but can't tell what it was. Stages and values differ from those in the paper (p.240 Table 1); can't see where the compadrino got the age-classes from</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4886" sId="1">
+    <nc r="U45" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4887" sId="1">
+    <nc r="W45" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4888" sId="1">
+    <nc r="AC45" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4889" sId="1">
+    <nc r="AE45" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4890" sId="1">
+    <nc r="U114" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4891" sId="1">
+    <nc r="W114" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4892" sId="1">
+    <nc r="AC114" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4893" sId="1">
+    <nc r="AE114" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4894" sId="1">
+    <nc r="U80" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U80">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4895" sId="1">
+    <nc r="W80" t="inlineStr">
+      <is>
+        <t>Parent</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4896" sId="1">
+    <nc r="AC80" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4897" sId="1">
+    <nc r="AE80" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4898" sId="1">
+    <oc r="O43" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O43" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4899" sId="1" odxf="1">
+    <oc r="O73" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O73" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+    <odxf/>
+  </rcc>
+  <rcc rId="4900" sId="1">
+    <oc r="O62" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O62" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4901" sId="1">
+    <oc r="O46" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O46" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4902" sId="1">
+    <oc r="O52" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O52" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog133.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4903" sId="1">
+    <oc r="O68" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O68" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4904" sId="1">
+    <oc r="O72" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O72" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4905" sId="1">
+    <nc r="U47" t="inlineStr">
+      <is>
+        <t>Post</t>
+      </is>
+    </nc>
+  </rcc>
+  <rfmt sheetId="1" sqref="U47">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </rfmt>
+  <rcc rId="4906" sId="1">
+    <nc r="W47" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4907" sId="1">
+    <nc r="AC47" t="inlineStr">
+      <is>
+        <t>No</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4908" sId="1">
+    <nc r="AE47" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4909" sId="1">
+    <nc r="AK47" t="inlineStr">
+      <is>
+        <t>Crouse</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4910" sId="1" xfDxf="1" dxf="1">
+    <oc r="M8" t="inlineStr">
+      <is>
+        <t>NoC</t>
+      </is>
+    </oc>
+    <nc r="M8" t="inlineStr">
+      <is>
+        <t>https://www.jstor.org/stable/3830713</t>
+      </is>
+    </nc>
+    <ndxf>
+      <font>
+        <name val="Code2000"/>
+        <scheme val="none"/>
+      </font>
+    </ndxf>
+  </rcc>
+  <rcc rId="4911" sId="1">
+    <oc r="O8" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O8" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4912" sId="1">
+    <oc r="O101" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </oc>
+    <nc r="O101" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4913" sId="1">
+    <nc r="U6" t="inlineStr">
+      <is>
+        <t>Pre</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4914" sId="1">
+    <nc r="W6" t="inlineStr">
+      <is>
+        <t>Offspring</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4915" sId="1">
+    <nc r="AC6" t="inlineStr">
+      <is>
+        <t>Yes</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4916" sId="1">
+    <nc r="AE6" t="inlineStr">
+      <is>
+        <t>None</t>
       </is>
     </nc>
   </rcc>
@@ -39519,7 +42744,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{C5DA09AF-521B-3D4B-9E13-AA9F9502B82D}" name="Bruce Kendall" id="-1969210306" dateTime="2018-08-30T08:28:48"/>
+  <userInfo guid="{793A0E0B-5B7C-5D4D-9067-8B5CCDB21940}" name="Bruce Kendall" id="-1969210306" dateTime="2018-08-30T08:28:48"/>
 </users>
 </file>
 
@@ -39822,9 +43047,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -39836,8 +43061,8 @@
     <col min="5" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.33203125" customWidth="1"/>
-    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
     <col min="10" max="10" width="6.6640625" customWidth="1"/>
     <col min="11" max="11" width="4.1640625" customWidth="1"/>
     <col min="12" max="12" width="5.33203125" customWidth="1"/>
@@ -39845,22 +43070,22 @@
     <col min="14" max="14" width="3.33203125" customWidth="1"/>
     <col min="15" max="15" width="12.83203125" customWidth="1"/>
     <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="17.33203125" customWidth="1"/>
+    <col min="17" max="20" width="17.33203125" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="14" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="17.5" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="20.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="15.83203125" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="19.1640625" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.5" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="17.83203125" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="21" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="18.83203125" hidden="1" customWidth="1"/>
     <col min="37" max="37" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -39870,13 +43095,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -39933,7 +43158,7 @@
         <v>22</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
         <v>23</v>
@@ -39945,7 +43170,7 @@
         <v>34</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>24</v>
@@ -39963,19 +43188,19 @@
         <v>29</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL1" s="1" t="s">
         <v>27</v>
@@ -39992,7 +43217,7 @@
         <v>43297</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D2" s="14">
         <v>43303</v>
@@ -40010,7 +43235,7 @@
         <v>173</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>363</v>
@@ -40094,13 +43319,13 @@
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="356">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B3" s="18">
         <v>43267</v>
       </c>
       <c r="C3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D3" s="18">
         <v>43267</v>
@@ -40135,30 +43360,30 @@
         <v>11</v>
       </c>
       <c r="V3" s="19" t="s">
+        <v>548</v>
+      </c>
+      <c r="W3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X3" s="19" t="s">
         <v>549</v>
-      </c>
-      <c r="W3" t="s">
-        <v>13</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>550</v>
       </c>
       <c r="Y3">
         <v>3</v>
       </c>
       <c r="Z3"/>
       <c r="AA3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AB3"/>
       <c r="AC3" t="s">
         <v>9</v>
       </c>
       <c r="AD3" s="19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AE3" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF3"/>
       <c r="AG3" s="20" t="s">
@@ -40184,7 +43409,7 @@
         <v>43297</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D4" s="14">
         <v>43303</v>
@@ -40202,7 +43427,7 @@
         <v>175</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>363</v>
@@ -40251,7 +43476,7 @@
         <v>32</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
@@ -40260,7 +43485,7 @@
       </c>
       <c r="AD4" s="13"/>
       <c r="AE4" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
@@ -40312,10 +43537,10 @@
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="R5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
@@ -40324,7 +43549,7 @@
       </c>
       <c r="V5"/>
       <c r="W5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X5"/>
       <c r="Y5"/>
@@ -40336,7 +43561,7 @@
       </c>
       <c r="AD5"/>
       <c r="AE5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF5"/>
       <c r="AG5"/>
@@ -40356,7 +43581,7 @@
         <v>43297</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D6" s="14">
         <v>43302</v>
@@ -40402,7 +43627,7 @@
       </c>
       <c r="V6" s="13"/>
       <c r="W6" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X6" s="13" t="s">
         <v>376</v>
@@ -40434,7 +43659,7 @@
       </c>
       <c r="AJ6" s="13"/>
       <c r="AK6" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL6" s="13" t="s">
         <v>378</v>
@@ -40450,7 +43675,7 @@
         <v>43297</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D7" s="11">
         <v>43302</v>
@@ -40504,7 +43729,7 @@
         <v>402</v>
       </c>
       <c r="W7" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X7" s="12" t="s">
         <v>403</v>
@@ -40522,7 +43747,7 @@
       </c>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
@@ -40542,7 +43767,7 @@
         <v>43297</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D8" s="14">
         <v>43303</v>
@@ -40560,7 +43785,7 @@
         <v>174</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>363</v>
@@ -40598,7 +43823,7 @@
       </c>
       <c r="V8" s="13"/>
       <c r="W8" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X8" s="12" t="s">
         <v>399</v>
@@ -40616,7 +43841,7 @@
       </c>
       <c r="AD8" s="13"/>
       <c r="AE8" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF8" s="13"/>
       <c r="AG8" s="13"/>
@@ -40663,25 +43888,25 @@
         <v>9</v>
       </c>
       <c r="Q9" t="s">
+        <v>517</v>
+      </c>
+      <c r="R9" t="s">
         <v>518</v>
-      </c>
-      <c r="R9" t="s">
-        <v>519</v>
       </c>
       <c r="U9" t="s">
         <v>11</v>
       </c>
       <c r="W9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC9" t="s">
         <v>9</v>
       </c>
       <c r="AE9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AK9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -40692,7 +43917,7 @@
         <v>43297</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D10" s="14">
         <v>43303</v>
@@ -40710,7 +43935,7 @@
         <v>171</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>363</v>
@@ -40748,13 +43973,13 @@
       </c>
       <c r="V10" s="13"/>
       <c r="W10" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X10" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y10" s="13" t="s">
         <v>543</v>
-      </c>
-      <c r="Y10" s="13" t="s">
-        <v>544</v>
       </c>
       <c r="Z10" s="13">
         <v>1</v>
@@ -40766,7 +43991,7 @@
       </c>
       <c r="AD10" s="13"/>
       <c r="AE10" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF10" s="13"/>
       <c r="AG10" s="13"/>
@@ -40786,7 +44011,7 @@
         <v>43297</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="13" t="s">
@@ -40854,7 +44079,7 @@
       </c>
       <c r="AD11" s="13"/>
       <c r="AE11" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF11" s="13"/>
       <c r="AG11" s="13"/>
@@ -40874,7 +44099,7 @@
         <v>43297</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D12" s="14">
         <v>43303</v>
@@ -40924,7 +44149,7 @@
         <v>393</v>
       </c>
       <c r="W12" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13" t="s">
@@ -40940,7 +44165,7 @@
       </c>
       <c r="AD12" s="13"/>
       <c r="AE12" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF12" s="13"/>
       <c r="AG12" s="13"/>
@@ -40950,7 +44175,7 @@
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
       <c r="AM12" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN12" s="13"/>
     </row>
@@ -40962,7 +44187,7 @@
         <v>43297</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D13" s="14">
         <v>43303</v>
@@ -40980,7 +44205,7 @@
         <v>172</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>363</v>
@@ -41018,10 +44243,10 @@
       </c>
       <c r="V13" s="13"/>
       <c r="W13" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Y13" s="13" t="s">
         <v>375</v>
@@ -41036,7 +44261,7 @@
       </c>
       <c r="AD13" s="13"/>
       <c r="AE13" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF13" s="13"/>
       <c r="AG13" s="13"/>
@@ -41050,7 +44275,7 @@
     </row>
     <row r="14" spans="1:40" ht="170">
       <c r="A14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B14" s="18">
         <v>43267</v>
@@ -41072,14 +44297,14 @@
         <v>8</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="U14" t="s">
         <v>11</v>
       </c>
       <c r="V14" s="19"/>
       <c r="W14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X14" s="19"/>
       <c r="AC14" t="s">
@@ -41087,13 +44312,13 @@
       </c>
       <c r="AD14" s="19"/>
       <c r="AE14" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG14" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="AG14" s="20" t="s">
+      <c r="AK14" t="s">
         <v>555</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>556</v>
       </c>
       <c r="AL14" s="19"/>
     </row>
@@ -41132,30 +44357,30 @@
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="Q15" t="s">
         <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="U15" t="s">
         <v>11</v>
       </c>
       <c r="W15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC15" t="s">
         <v>9</v>
       </c>
       <c r="AE15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B16" s="18">
         <v>43267</v>
@@ -41179,7 +44404,7 @@
       </c>
       <c r="V16" s="19"/>
       <c r="W16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="X16" s="19"/>
       <c r="AC16" t="s">
@@ -41187,7 +44412,7 @@
       </c>
       <c r="AD16" s="19"/>
       <c r="AE16" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG16" s="20"/>
       <c r="AK16" t="s">
@@ -41195,12 +44420,12 @@
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B17" s="18">
         <v>43267</v>
@@ -41224,7 +44449,7 @@
       </c>
       <c r="V17" s="19"/>
       <c r="W17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X17" s="19"/>
       <c r="AC17" t="s">
@@ -41232,22 +44457,22 @@
       </c>
       <c r="AD17" s="19"/>
       <c r="AE17" s="20" t="s">
+        <v>556</v>
+      </c>
+      <c r="AG17" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="AG17" s="20" t="s">
+      <c r="AK17" t="s">
         <v>558</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>559</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B18" s="18">
         <v>43267</v>
@@ -41266,7 +44491,7 @@
         <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="P18" s="19"/>
       <c r="U18" t="s">
@@ -41274,7 +44499,7 @@
       </c>
       <c r="V18" s="19"/>
       <c r="W18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="X18" s="19"/>
       <c r="AC18" t="s">
@@ -41282,7 +44507,7 @@
       </c>
       <c r="AD18" s="19"/>
       <c r="AE18" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG18" s="20" t="s">
         <v>370</v>
@@ -41331,19 +44556,19 @@
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U19" t="s">
         <v>10</v>
       </c>
       <c r="W19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC19" t="s">
         <v>8</v>
       </c>
       <c r="AE19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:40">
@@ -41384,28 +44609,28 @@
         <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S20" t="s">
         <v>45</v>
       </c>
       <c r="T20" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="U20" t="s">
         <v>10</v>
       </c>
       <c r="W20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AC20" t="s">
         <v>8</v>
       </c>
       <c r="AE20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AK20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -41416,7 +44641,7 @@
         <v>43297</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D21" s="14">
         <v>43302</v>
@@ -41453,7 +44678,7 @@
         <v>8</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="Q21" s="13" t="s">
         <v>45</v>
@@ -41470,7 +44695,7 @@
         <v>382</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X21" s="13" t="s">
         <v>381</v>
@@ -41498,7 +44723,7 @@
       </c>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="12" t="s">
-        <v>21</v>
+        <v>568</v>
       </c>
       <c r="AL21" s="12" t="s">
         <v>405</v>
@@ -41510,7 +44735,7 @@
     </row>
     <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B22" s="18">
         <v>43267</v>
@@ -41534,7 +44759,7 @@
       </c>
       <c r="V22" s="19"/>
       <c r="W22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="X22" s="19"/>
       <c r="AC22" t="s">
@@ -41542,22 +44767,22 @@
       </c>
       <c r="AD22" s="19"/>
       <c r="AE22" s="20" t="s">
+        <v>560</v>
+      </c>
+      <c r="AG22" s="20" t="s">
         <v>561</v>
       </c>
-      <c r="AG22" s="20" t="s">
-        <v>562</v>
-      </c>
       <c r="AK22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AL22" s="19"/>
       <c r="AM22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B23" s="18">
         <v>43267</v>
@@ -41599,7 +44824,7 @@
       </c>
       <c r="AL23" s="19"/>
       <c r="AM23" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -41638,7 +44863,7 @@
         <v>9</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>46</v>
@@ -41652,15 +44877,23 @@
       <c r="T24">
         <v>1984</v>
       </c>
-      <c r="U24" s="6"/>
-      <c r="W24" s="6"/>
+      <c r="U24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="X24" s="6"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
       <c r="AB24" s="6"/>
-      <c r="AC24" s="6"/>
-      <c r="AE24" s="6"/>
+      <c r="AC24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE24" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="AF24" s="6"/>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6"/>
@@ -41686,7 +44919,7 @@
         <v>85</v>
       </c>
       <c r="J25" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K25" t="s">
         <v>363</v>
@@ -41704,7 +44937,7 @@
         <v>9</v>
       </c>
       <c r="P25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="Q25" t="s">
         <v>46</v>
@@ -41717,6 +44950,18 @@
       </c>
       <c r="T25">
         <v>1984</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE25" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:40">
@@ -41754,7 +44999,19 @@
         <v>9</v>
       </c>
       <c r="P26" t="s">
-        <v>431</v>
+        <v>430</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE26" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:40">
@@ -41803,6 +45060,18 @@
       <c r="T27" t="s">
         <v>364</v>
       </c>
+      <c r="U27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="28" spans="1:40">
       <c r="A28" t="s">
@@ -41839,7 +45108,7 @@
         <v>9</v>
       </c>
       <c r="P28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="Q28" t="s">
         <v>46</v>
@@ -41852,12 +45121,27 @@
       </c>
       <c r="T28">
         <v>1993</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="W28" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC28" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE28" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>565</v>
       </c>
       <c r="AN28" s="6"/>
     </row>
     <row r="29" spans="1:40">
       <c r="A29" s="8" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B29" s="8"/>
       <c r="E29" t="s">
@@ -41891,7 +45175,7 @@
         <v>9</v>
       </c>
       <c r="P29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q29" t="s">
         <v>46</v>
@@ -41905,19 +45189,30 @@
       <c r="T29">
         <v>1985</v>
       </c>
-      <c r="W29" s="8"/>
+      <c r="U29" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="X29" s="8"/>
       <c r="Y29" s="8"/>
       <c r="Z29" s="8"/>
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
+      <c r="AC29" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
+      <c r="AE29" s="8" t="s">
+        <v>566</v>
+      </c>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
+      <c r="AK29" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="AL29" s="8"/>
       <c r="AM29" s="8"/>
     </row>
@@ -41957,7 +45252,7 @@
         <v>9</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>47</v>
@@ -41965,13 +45260,21 @@
       <c r="R30">
         <v>1</v>
       </c>
-      <c r="U30" s="6"/>
-      <c r="W30" s="6"/>
+      <c r="U30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W30" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="6"/>
-      <c r="AC30" s="6"/>
-      <c r="AE30" s="6"/>
+      <c r="AC30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE30" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="AF30" s="6"/>
       <c r="AH30" s="6"/>
       <c r="AJ30" s="6"/>
@@ -42024,6 +45327,18 @@
       <c r="T31" t="s">
         <v>364</v>
       </c>
+      <c r="U31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="32" spans="1:40">
       <c r="A32" t="s">
@@ -42063,10 +45378,22 @@
         <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>469</v>
+        <v>468</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC32" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE32" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:37">
       <c r="A33" t="s">
         <v>362</v>
       </c>
@@ -42112,8 +45439,20 @@
       <c r="T33" t="s">
         <v>364</v>
       </c>
+      <c r="U33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE33" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:37">
       <c r="A34" t="s">
         <v>362</v>
       </c>
@@ -42159,8 +45498,20 @@
       <c r="T34" t="s">
         <v>364</v>
       </c>
+      <c r="U34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:37">
       <c r="A35" t="s">
         <v>362</v>
       </c>
@@ -42195,13 +45546,28 @@
         <v>9</v>
       </c>
       <c r="Q35" t="s">
+        <v>498</v>
+      </c>
+      <c r="R35" t="s">
         <v>499</v>
       </c>
-      <c r="R35" t="s">
-        <v>500</v>
+      <c r="U35" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="W35" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC35" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>565</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:37">
       <c r="A36" t="s">
         <v>362</v>
       </c>
@@ -42247,8 +45613,23 @@
       <c r="T36" t="s">
         <v>364</v>
       </c>
+      <c r="U36" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="W36" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC36" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK36" t="s">
+        <v>565</v>
+      </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:37">
       <c r="A37" t="s">
         <v>362</v>
       </c>
@@ -42280,7 +45661,7 @@
         <v>363</v>
       </c>
       <c r="O37" t="s">
-        <v>9</v>
+        <v>379</v>
       </c>
       <c r="Q37" t="s">
         <v>364</v>
@@ -42295,7 +45676,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:37">
       <c r="A38" t="s">
         <v>395</v>
       </c>
@@ -42327,22 +45708,25 @@
         <v>363</v>
       </c>
       <c r="O38" t="s">
-        <v>9</v>
+        <v>379</v>
+      </c>
+      <c r="P38" t="s">
+        <v>570</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="S38" t="s">
         <v>44</v>
       </c>
       <c r="T38" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:37">
       <c r="A39" t="s">
         <v>365</v>
       </c>
@@ -42371,13 +45755,13 @@
         <v>363</v>
       </c>
       <c r="N39" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O39" t="s">
         <v>9</v>
       </c>
       <c r="P39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q39" t="s">
         <v>45</v>
@@ -42385,8 +45769,20 @@
       <c r="R39" t="s">
         <v>380</v>
       </c>
+      <c r="U39" t="s">
+        <v>12</v>
+      </c>
+      <c r="W39" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:37">
       <c r="A40" t="s">
         <v>365</v>
       </c>
@@ -42403,7 +45799,7 @@
         <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K40" t="s">
         <v>363</v>
@@ -42421,10 +45817,22 @@
         <v>9</v>
       </c>
       <c r="P40" t="s">
-        <v>472</v>
+        <v>471</v>
+      </c>
+      <c r="U40" t="s">
+        <v>11</v>
+      </c>
+      <c r="W40" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC40" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:37">
       <c r="A41" t="s">
         <v>362</v>
       </c>
@@ -42470,8 +45878,20 @@
       <c r="T41" t="s">
         <v>364</v>
       </c>
+      <c r="U41" t="s">
+        <v>10</v>
+      </c>
+      <c r="W41" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:37">
       <c r="A42" t="s">
         <v>395</v>
       </c>
@@ -42503,16 +45923,25 @@
         <v>363</v>
       </c>
       <c r="O42" t="s">
-        <v>9</v>
+        <v>379</v>
+      </c>
+      <c r="P42" t="s">
+        <v>571</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
+      </c>
+      <c r="U42" t="s">
+        <v>11</v>
+      </c>
+      <c r="W42" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:37">
       <c r="A43" t="s">
         <v>395</v>
       </c>
@@ -42550,10 +45979,22 @@
         <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>477</v>
+        <v>476</v>
+      </c>
+      <c r="U43" t="s">
+        <v>12</v>
+      </c>
+      <c r="W43" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:37">
       <c r="A44" t="s">
         <v>395</v>
       </c>
@@ -42591,12 +46032,24 @@
         <v>43</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
+      <c r="U44" t="s">
+        <v>10</v>
+      </c>
+      <c r="W44" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC44" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:37">
       <c r="A45" t="s">
         <v>395</v>
       </c>
@@ -42634,12 +46087,27 @@
         <v>43</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
+      <c r="U45" t="s">
+        <v>569</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC45" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK45" t="s">
+        <v>565</v>
+      </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:37">
       <c r="A46" t="s">
         <v>362</v>
       </c>
@@ -42685,8 +46153,20 @@
       <c r="T46" t="s">
         <v>364</v>
       </c>
+      <c r="U46" t="s">
+        <v>11</v>
+      </c>
+      <c r="W46" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC46" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:37">
       <c r="A47" t="s">
         <v>395</v>
       </c>
@@ -42724,12 +46204,27 @@
         <v>43</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
+      <c r="U47" t="s">
+        <v>11</v>
+      </c>
+      <c r="W47" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC47" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK47" t="s">
+        <v>555</v>
+      </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:37">
       <c r="A48" t="s">
         <v>362</v>
       </c>
@@ -42774,6 +46269,18 @@
       </c>
       <c r="T48" t="s">
         <v>364</v>
+      </c>
+      <c r="U48" t="s">
+        <v>12</v>
+      </c>
+      <c r="W48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:40">
@@ -42814,13 +46321,28 @@
         <v>43</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>46</v>
       </c>
       <c r="T49" s="7">
         <v>1992</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC49" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK49" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:40">
@@ -42866,21 +46388,29 @@
         <v>43</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
+      <c r="U50" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
+      <c r="W50" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="X50" s="6"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
       <c r="AB50" s="6"/>
-      <c r="AC50" s="6"/>
+      <c r="AC50" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AD50" s="6"/>
-      <c r="AE50" s="6"/>
+      <c r="AE50" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="AF50" s="6"/>
       <c r="AG50" s="6"/>
       <c r="AH50" s="6"/>
@@ -42937,6 +46467,21 @@
       <c r="T51" t="s">
         <v>364</v>
       </c>
+      <c r="U51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK51" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="52" spans="1:40">
       <c r="A52" t="s">
@@ -42976,13 +46521,28 @@
         <v>43</v>
       </c>
       <c r="R52" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="S52" t="s">
         <v>44</v>
       </c>
       <c r="T52" t="s">
-        <v>471</v>
+        <v>470</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W52" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK52" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="53" spans="1:40">
@@ -43034,25 +46594,35 @@
         <v>44</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="U53" s="6"/>
+        <v>497</v>
+      </c>
+      <c r="U53" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
+      <c r="W53" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="X53" s="6"/>
       <c r="Y53" s="6"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
       <c r="AB53" s="6"/>
-      <c r="AC53" s="6"/>
+      <c r="AC53" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AD53" s="6"/>
-      <c r="AE53" s="6"/>
+      <c r="AE53" s="6" t="s">
+        <v>566</v>
+      </c>
       <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
       <c r="AH53" s="6"/>
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
-      <c r="AK53" s="6"/>
+      <c r="AK53" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
       <c r="AN53" s="6"/>
@@ -43103,6 +46673,21 @@
       <c r="T54" t="s">
         <v>364</v>
       </c>
+      <c r="U54" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="W54" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC54" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE54" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK54" s="6" t="s">
+        <v>565</v>
+      </c>
     </row>
     <row r="55" spans="1:40" s="13" customFormat="1">
       <c r="A55" t="s">
@@ -43120,7 +46705,7 @@
       <c r="G55">
         <v>2009</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="21" t="s">
         <v>77</v>
       </c>
       <c r="I55"/>
@@ -43143,23 +46728,31 @@
         <v>9</v>
       </c>
       <c r="P55" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="Q55"/>
       <c r="R55"/>
       <c r="S55"/>
       <c r="T55"/>
-      <c r="U55"/>
+      <c r="U55" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="V55"/>
-      <c r="W55"/>
+      <c r="W55" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="X55"/>
       <c r="Y55"/>
       <c r="Z55"/>
       <c r="AA55"/>
       <c r="AB55"/>
-      <c r="AC55"/>
+      <c r="AC55" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AD55"/>
-      <c r="AE55"/>
+      <c r="AE55" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="AF55"/>
       <c r="AG55"/>
       <c r="AH55"/>
@@ -43213,7 +46806,7 @@
         <v>43</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="S56" s="6" t="s">
         <v>48</v>
@@ -43221,23 +46814,33 @@
       <c r="T56" s="6">
         <v>12</v>
       </c>
-      <c r="U56" s="6"/>
+      <c r="U56" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
+      <c r="W56" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="X56" s="6"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
       <c r="AB56" s="6"/>
-      <c r="AC56" s="6"/>
+      <c r="AC56" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
+      <c r="AE56" s="6" t="s">
+        <v>566</v>
+      </c>
       <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
       <c r="AH56" s="6"/>
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
-      <c r="AK56" s="6"/>
+      <c r="AK56" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
       <c r="AN56" s="6"/>
@@ -43288,6 +46891,18 @@
       <c r="T57" t="s">
         <v>364</v>
       </c>
+      <c r="U57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W57" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE57" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="58" spans="1:40">
       <c r="A58" t="s">
@@ -43324,18 +46939,30 @@
         <v>9</v>
       </c>
       <c r="P58" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Q58" t="s">
         <v>44</v>
       </c>
       <c r="R58" t="s">
-        <v>465</v>
+        <v>464</v>
+      </c>
+      <c r="U58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE58" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:40">
       <c r="A59" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B59" s="8"/>
       <c r="E59" t="s">
@@ -43369,13 +46996,13 @@
         <v>9</v>
       </c>
       <c r="P59" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="Q59" t="s">
         <v>44</v>
       </c>
       <c r="R59" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="S59" t="s">
         <v>49</v>
@@ -43383,19 +47010,30 @@
       <c r="T59">
         <v>1986</v>
       </c>
-      <c r="W59" s="8"/>
+      <c r="U59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W59" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="X59" s="8"/>
       <c r="Y59" s="8"/>
       <c r="Z59" s="8"/>
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
-      <c r="AC59" s="8"/>
+      <c r="AC59" s="8" t="s">
+        <v>572</v>
+      </c>
       <c r="AD59" s="8"/>
-      <c r="AE59" s="6"/>
+      <c r="AE59" s="6" t="s">
+        <v>566</v>
+      </c>
       <c r="AH59" s="8"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="8"/>
-      <c r="AK59" s="8"/>
+      <c r="AK59" s="8" t="s">
+        <v>565</v>
+      </c>
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
     </row>
@@ -43445,6 +47083,21 @@
       <c r="T60" t="s">
         <v>364</v>
       </c>
+      <c r="U60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W60" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE60" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK60" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="61" spans="1:40">
       <c r="A61" t="s">
@@ -43475,7 +47128,7 @@
         <v>363</v>
       </c>
       <c r="N61" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O61" t="s">
         <v>9</v>
@@ -43484,7 +47137,19 @@
         <v>43</v>
       </c>
       <c r="R61" t="s">
-        <v>483</v>
+        <v>482</v>
+      </c>
+      <c r="U61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="W61" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC61" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="AE61" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:40">
@@ -43525,13 +47190,25 @@
         <v>43</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="S62" s="7" t="s">
         <v>46</v>
       </c>
       <c r="T62" s="7">
         <v>1989</v>
+      </c>
+      <c r="U62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W62" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE62" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:40">
@@ -43569,7 +47246,7 @@
         <v>9</v>
       </c>
       <c r="P63" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="Q63" t="s">
         <v>46</v>
@@ -43582,6 +47259,18 @@
       </c>
       <c r="T63">
         <v>1975</v>
+      </c>
+      <c r="U63" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W63" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE63" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:40">
@@ -43616,7 +47305,10 @@
         <v>363</v>
       </c>
       <c r="O64" t="s">
-        <v>9</v>
+        <v>379</v>
+      </c>
+      <c r="P64" t="s">
+        <v>574</v>
       </c>
       <c r="Q64" t="s">
         <v>364</v>
@@ -43645,7 +47337,7 @@
       <c r="G65">
         <v>2003</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="21" t="s">
         <v>139</v>
       </c>
       <c r="J65" s="6" t="s">
@@ -43667,23 +47359,31 @@
         <v>9</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q65" s="6" t="s">
         <v>44</v>
       </c>
       <c r="R65" t="s">
-        <v>533</v>
-      </c>
-      <c r="U65" s="6"/>
+        <v>532</v>
+      </c>
+      <c r="U65" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
+      <c r="W65" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="X65" s="6"/>
       <c r="Y65" s="6"/>
       <c r="Z65" s="6"/>
       <c r="AA65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AE65" s="6"/>
+      <c r="AC65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE65" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="AF65" s="6"/>
       <c r="AG65" s="6"/>
       <c r="AH65" s="6"/>
@@ -43727,7 +47427,7 @@
         <v>9</v>
       </c>
       <c r="P66" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="Q66" t="s">
         <v>46</v>
@@ -43740,6 +47440,18 @@
       </c>
       <c r="T66">
         <v>1983</v>
+      </c>
+      <c r="U66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W66" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE66" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:40">
@@ -43777,13 +47489,25 @@
         <v>9</v>
       </c>
       <c r="P67" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="Q67" t="s">
         <v>44</v>
       </c>
       <c r="R67" t="s">
-        <v>425</v>
+        <v>424</v>
+      </c>
+      <c r="U67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="W67" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE67" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:40">
@@ -43812,7 +47536,7 @@
         <v>363</v>
       </c>
       <c r="M68" t="s">
-        <v>363</v>
+        <v>575</v>
       </c>
       <c r="N68" t="s">
         <v>363</v>
@@ -43831,6 +47555,21 @@
       </c>
       <c r="T68" t="s">
         <v>364</v>
+      </c>
+      <c r="U68" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="W68" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC68" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="AE68" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="AK68" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="69" spans="1:40">
@@ -43868,7 +47607,7 @@
         <v>379</v>
       </c>
       <c r="P69" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="Q69" s="9" t="s">
         <v>48</v>
@@ -43880,7 +47619,7 @@
         <v>44</v>
       </c>
       <c r="T69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:40">
@@ -43918,13 +47657,13 @@
         <v>379</v>
       </c>
       <c r="P70" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="Q70" t="s">
         <v>43</v>
       </c>
       <c r="R70" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S70" t="s">
         <v>46</v>
@@ -44042,7 +47781,7 @@
         <v>379</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:40" s="6" customFormat="1">
@@ -44084,13 +47823,13 @@
         <v>379</v>
       </c>
       <c r="P73" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -44153,7 +47892,7 @@
         <v>379</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="Q74"/>
       <c r="R74"/>
@@ -44200,13 +47939,13 @@
         <v>379</v>
       </c>
       <c r="P75" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q75" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R75" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="S75" t="s">
         <v>45</v>
@@ -44274,7 +48013,7 @@
         <v>379</v>
       </c>
       <c r="P76" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="Q76"/>
       <c r="R76"/>
@@ -44478,13 +48217,13 @@
         <v>379</v>
       </c>
       <c r="P79" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="Q79" t="s">
         <v>43</v>
       </c>
       <c r="R79" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="S79" t="s">
         <v>46</v>
@@ -44552,7 +48291,7 @@
         <v>379</v>
       </c>
       <c r="P80" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q80"/>
       <c r="R80"/>
@@ -44614,13 +48353,13 @@
         <v>379</v>
       </c>
       <c r="P81" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="Q81" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>46</v>
@@ -44646,7 +48385,7 @@
         <v>88</v>
       </c>
       <c r="J82" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K82" t="s">
         <v>244</v>
@@ -44667,13 +48406,13 @@
         <v>43</v>
       </c>
       <c r="R82" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S82" t="s">
         <v>44</v>
       </c>
       <c r="T82" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:40">
@@ -44693,7 +48432,7 @@
         <v>81</v>
       </c>
       <c r="J83" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K83" t="s">
         <v>363</v>
@@ -44711,7 +48450,7 @@
         <v>379</v>
       </c>
       <c r="P83" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="1:40">
@@ -44749,7 +48488,7 @@
         <v>379</v>
       </c>
       <c r="P84" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:40">
@@ -44787,7 +48526,7 @@
         <v>379</v>
       </c>
       <c r="P85" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" spans="1:40">
@@ -44826,7 +48565,7 @@
         <v>379</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
@@ -44983,7 +48722,7 @@
         <v>379</v>
       </c>
       <c r="P89" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="90" spans="1:40">
@@ -45021,13 +48760,13 @@
         <v>379</v>
       </c>
       <c r="P90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="Q90" t="s">
         <v>43</v>
       </c>
       <c r="R90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:40">
@@ -45066,7 +48805,7 @@
         <v>379</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -45123,7 +48862,7 @@
         <v>379</v>
       </c>
       <c r="P92" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -45212,7 +48951,7 @@
         <v>379</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -45273,7 +49012,7 @@
         <v>379</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
@@ -45336,7 +49075,7 @@
         <v>379</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
@@ -45393,7 +49132,7 @@
         <v>379</v>
       </c>
       <c r="P97" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="98" spans="1:40">
@@ -45432,7 +49171,7 @@
         <v>379</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
@@ -45483,25 +49222,25 @@
         <v>363</v>
       </c>
       <c r="N99" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O99" t="s">
         <v>379</v>
       </c>
       <c r="P99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="Q99" t="s">
         <v>43</v>
       </c>
       <c r="R99" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="S99" t="s">
         <v>44</v>
       </c>
       <c r="T99" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="100" spans="1:40">
@@ -45540,7 +49279,7 @@
         <v>379</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
@@ -45629,7 +49368,7 @@
         <v>75</v>
       </c>
       <c r="J102" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K102" t="s">
         <v>363</v>
@@ -45647,7 +49386,7 @@
         <v>379</v>
       </c>
       <c r="P102" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:40">
@@ -45768,7 +49507,7 @@
         <v>134</v>
       </c>
       <c r="J105" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>363</v>
@@ -45786,7 +49525,7 @@
         <v>379</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
@@ -45810,7 +49549,7 @@
     </row>
     <row r="106" spans="1:40">
       <c r="A106" s="8" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="6"/>
@@ -45897,17 +49636,17 @@
       <c r="L107" t="s">
         <v>363</v>
       </c>
-      <c r="M107" t="s">
-        <v>363</v>
+      <c r="M107" s="22" t="s">
+        <v>577</v>
       </c>
       <c r="N107" t="s">
         <v>363</v>
       </c>
       <c r="O107" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P107" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="Q107" t="s">
         <v>47</v>
@@ -45959,6 +49698,18 @@
       <c r="R108" s="7" t="s">
         <v>397</v>
       </c>
+      <c r="U108" t="s">
+        <v>11</v>
+      </c>
+      <c r="W108" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC108" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE108" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="109" spans="1:40">
       <c r="A109" t="s">
@@ -45995,13 +49746,25 @@
         <v>8</v>
       </c>
       <c r="P109" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q109" t="s">
         <v>45</v>
       </c>
       <c r="R109" t="s">
-        <v>428</v>
+        <v>427</v>
+      </c>
+      <c r="U109" t="s">
+        <v>11</v>
+      </c>
+      <c r="W109" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC109" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE109" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:40">
@@ -46039,7 +49802,19 @@
         <v>8</v>
       </c>
       <c r="P110" t="s">
-        <v>476</v>
+        <v>475</v>
+      </c>
+      <c r="U110" t="s">
+        <v>11</v>
+      </c>
+      <c r="W110" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC110" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE110" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:40">
@@ -46083,10 +49858,25 @@
         <v>43</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
+      <c r="U111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="W111" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC111" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE111" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK111" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="112" spans="1:40">
       <c r="A112" t="s">
@@ -46120,16 +49910,16 @@
         <v>363</v>
       </c>
       <c r="O112" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P112" t="s">
-        <v>408</v>
+        <v>578</v>
       </c>
       <c r="Q112" s="7" t="s">
         <v>44</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="113" spans="1:40">
@@ -46167,19 +49957,31 @@
         <v>8</v>
       </c>
       <c r="P113" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="Q113" t="s">
         <v>43</v>
       </c>
       <c r="R113" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S113" t="s">
         <v>44</v>
       </c>
       <c r="T113" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="U113" t="s">
+        <v>11</v>
+      </c>
+      <c r="W113" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC113" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE113" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:40">
@@ -46217,7 +50019,7 @@
         <v>8</v>
       </c>
       <c r="P114" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="Q114" t="s">
         <v>364</v>
@@ -46230,6 +50032,18 @@
       </c>
       <c r="T114" t="s">
         <v>364</v>
+      </c>
+      <c r="U114" t="s">
+        <v>11</v>
+      </c>
+      <c r="W114" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC114" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE114" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:40">
@@ -46271,7 +50085,7 @@
         <v>8</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="Q115" s="9" t="s">
         <v>46</v>
@@ -46285,17 +50099,25 @@
       <c r="T115" s="6">
         <v>1992</v>
       </c>
-      <c r="U115" s="6"/>
+      <c r="U115" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="V115" s="6"/>
-      <c r="W115" s="6"/>
+      <c r="W115" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="X115" s="6"/>
       <c r="Y115" s="6"/>
       <c r="Z115" s="6"/>
       <c r="AA115" s="6"/>
       <c r="AB115" s="6"/>
-      <c r="AC115" s="6"/>
+      <c r="AC115" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="AD115" s="6"/>
-      <c r="AE115" s="6"/>
+      <c r="AE115" s="6" t="s">
+        <v>565</v>
+      </c>
       <c r="AF115" s="6"/>
       <c r="AG115" s="6"/>
       <c r="AH115" s="6"/>
@@ -46338,22 +50160,22 @@
         <v>363</v>
       </c>
       <c r="O116" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P116" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Q116" t="s">
         <v>43</v>
       </c>
       <c r="R116" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="S116" t="s">
         <v>44</v>
       </c>
       <c r="T116" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="117" spans="1:40">
@@ -46380,34 +50202,34 @@
         <v>363</v>
       </c>
       <c r="K117" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="L117" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="N117" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="O117" t="s">
+        <v>379</v>
+      </c>
+      <c r="P117" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="L117" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="M117" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="N117" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="O117" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="P117" s="6" t="s">
-        <v>493</v>
       </c>
       <c r="Q117" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S117" s="6" t="s">
         <v>45</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
@@ -46459,25 +50281,25 @@
         <v>363</v>
       </c>
       <c r="N118" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O118" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P118" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="Q118" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R118" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="S118" t="s">
         <v>44</v>
       </c>
       <c r="T118" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="119" spans="1:40">
@@ -46512,16 +50334,16 @@
         <v>363</v>
       </c>
       <c r="O119" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P119" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Q119" t="s">
         <v>43</v>
       </c>
       <c r="R119" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="120" spans="1:40">
@@ -46556,16 +50378,16 @@
         <v>363</v>
       </c>
       <c r="O120" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P120" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="Q120" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
@@ -46605,16 +50427,31 @@
         <v>8</v>
       </c>
       <c r="P121" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="Q121" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
+      <c r="U121" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="W121" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE121" t="s">
+        <v>566</v>
+      </c>
+      <c r="AK121" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="122" spans="1:40" s="13" customFormat="1">
       <c r="A122" t="s">
@@ -46652,16 +50489,16 @@
         <v>363</v>
       </c>
       <c r="O122" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P122" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q122" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R122" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="S122"/>
       <c r="T122"/>
@@ -46722,22 +50559,22 @@
         <v>363</v>
       </c>
       <c r="O123" s="6" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="Q123" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="S123" s="6" t="s">
         <v>45</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
@@ -46789,17 +50626,17 @@
       <c r="L124" t="s">
         <v>363</v>
       </c>
-      <c r="M124" t="s">
-        <v>363</v>
+      <c r="M124" s="22" t="s">
+        <v>580</v>
       </c>
       <c r="N124" t="s">
         <v>363</v>
       </c>
       <c r="O124" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P124" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="Q124" t="s">
         <v>46</v>
@@ -46870,10 +50707,10 @@
         <v>363</v>
       </c>
       <c r="O125" t="s">
-        <v>8</v>
+        <v>379</v>
       </c>
       <c r="P125" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="Q125" t="s">
         <v>364</v>
@@ -46910,7 +50747,7 @@
     </row>
     <row r="126" spans="1:40" s="13" customFormat="1">
       <c r="A126" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -46939,17 +50776,25 @@
       <c r="R126"/>
       <c r="S126"/>
       <c r="T126"/>
-      <c r="U126"/>
+      <c r="U126" t="s">
+        <v>10</v>
+      </c>
       <c r="V126"/>
-      <c r="W126"/>
+      <c r="W126" t="s">
+        <v>15</v>
+      </c>
       <c r="X126"/>
       <c r="Y126"/>
       <c r="Z126"/>
       <c r="AA126"/>
       <c r="AB126"/>
-      <c r="AC126"/>
+      <c r="AC126" t="s">
+        <v>8</v>
+      </c>
       <c r="AD126"/>
-      <c r="AE126"/>
+      <c r="AE126" t="s">
+        <v>14</v>
+      </c>
       <c r="AF126"/>
       <c r="AG126"/>
       <c r="AH126"/>
@@ -46967,9 +50812,9 @@
     <sortCondition ref="H2:H127"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F62F7674-6627-1A45-867D-D051D69B4567}" topLeftCell="D1">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+    <customSheetView guid="{F62F7674-6627-1A45-867D-D051D69B4567}" hiddenColumns="1" topLeftCell="G1">
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
     </customSheetView>

--- a/reports/MPM_errors_results.xlsx
+++ b/reports/MPM_errors_results.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kendall/Documents/Github/MPM-errors/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{AE638977-6024-9B4A-9279-998B191B3817}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{2A306908-22BD-884E-A980-21CCB50191B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="12700" windowWidth="28040" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="12700" windowWidth="32840" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Z_F62F7674_6627_1A45_867D_D051D69B4567_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$J:$N,Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</definedName>
+    <definedName name="Z_F62F7674_6627_1A45_867D_D051D69B4567_.wvu.Cols" localSheetId="0" hidden="1">Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
-    <customWorkbookView name="Bruce Kendall - Personal View" guid="{F62F7674-6627-1A45-867D-D051D69B4567}" mergeInterval="0" personalView="1" xWindow="26" yWindow="635" windowWidth="1402" windowHeight="762" activeSheetId="1"/>
+    <customWorkbookView name="Bruce Kendall - Personal View" guid="{F62F7674-6627-1A45-867D-D051D69B4567}" mergeInterval="0" personalView="1" xWindow="25" yWindow="635" windowWidth="1642" windowHeight="762" activeSheetId="1"/>
     <customWorkbookView name="MPIDR_D\sschneider - Personal View" guid="{C7BF54E7-7AD6-469C-91D0-7BE53A5838CE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="838" activeSheetId="1"/>
     <customWorkbookView name="Voigt, Jakob - Personal View" guid="{1A4C78E0-9C34-4C40-8724-0615D8B3D4B6}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="799" activeSheetId="1"/>
     <customWorkbookView name="Schneider, Sandra - Personal View" guid="{90792003-46AF-4948-93D1-57EEFFDB86F0}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1280" windowHeight="838" activeSheetId="1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="580">
   <si>
     <t>CompadrinoName</t>
   </si>
@@ -1148,9 +1148,6 @@
     <t>There is no fecundity examined</t>
   </si>
   <si>
-    <t>"&lt; 4 cm" | "4,01-6 cm" | "6,01-8 cm" | "8,01 -10 cm"</t>
-  </si>
-  <si>
     <t>Growth is based on size</t>
   </si>
   <si>
@@ -1182,9 +1179,6 @@
   </si>
   <si>
     <t>Medium female</t>
-  </si>
-  <si>
-    <t>Juvenile | Small female: &lt;30 kg | Medium female: 30-50 kg | Large female: &gt;50 kg | Small male: &lt;45 kg | Medium male: 45-75 kg | Large male: &gt;75 kg</t>
   </si>
   <si>
     <t>Sub-Adult</t>
@@ -1761,9 +1755,6 @@
     <t xml:space="preserve">10.1890/08-2060.1 </t>
   </si>
   <si>
-    <t>Multple</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.jstor.org/stable/2265795 </t>
   </si>
   <si>
@@ -1774,6 +1765,12 @@
   </si>
   <si>
     <t>https://www.jstor.org/stable/3830713</t>
+  </si>
+  <si>
+    <t>No T</t>
+  </si>
+  <si>
+    <t>Poorly described</t>
   </si>
 </sst>
 </file>
@@ -3814,7 +3811,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{793A0E0B-5B7C-5D4D-9067-8B5CCDB21940}" diskRevisions="1" revisionId="4916" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7FBE61D3-3F05-BC4A-BCB3-C68E0B3CF891}" diskRevisions="1" revisionId="4942" version="13">
   <header guid="{6C897539-DEE9-47EE-9B0E-62AFDFB5BFB6}" dateTime="2018-08-03T15:18:11" maxSheetId="2" userName="MPIDR_D\sschneider" r:id="rId28" minRId="887" maxRId="896">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -4480,6 +4477,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{7FBE61D3-3F05-BC4A-BCB3-C68E0B3CF891}" dateTime="2018-08-31T15:30:48" maxSheetId="2" userName="Bruce Kendall" r:id="rId161" minRId="4917" maxRId="4941">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -27509,6 +27511,293 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog134.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="4917" sId="1">
+    <nc r="AK80" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4918" sId="1">
+    <oc r="AE58" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE58" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4919" sId="1">
+    <oc r="AE80" t="inlineStr">
+      <is>
+        <t>Observed-single</t>
+      </is>
+    </oc>
+    <nc r="AE80" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4920" sId="1">
+    <oc r="AE103" t="inlineStr">
+      <is>
+        <t>Multple</t>
+      </is>
+    </oc>
+    <nc r="AE103" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4921" sId="1">
+    <oc r="AE16" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE16" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4922" sId="1">
+    <oc r="AE74" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE74" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4923" sId="1">
+    <oc r="AE95" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE95" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4924" sId="1">
+    <oc r="AE76" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE76" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4925" sId="1">
+    <oc r="AE64" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE64" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4926" sId="1">
+    <oc r="AE100" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE100" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4927" sId="1">
+    <oc r="AE55" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE55" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4928" sId="1">
+    <oc r="AE54" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE54" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4929" sId="1">
+    <oc r="AE106" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE106" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4930" sId="1">
+    <oc r="AE117" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE117" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4931" sId="1">
+    <oc r="AE22" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE22" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4932" sId="1">
+    <oc r="AE9" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE9" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4933" sId="1">
+    <oc r="AE4" t="inlineStr">
+      <is>
+        <t>Juvenile | Small female: &lt;30 kg | Medium female: 30-50 kg | Large female: &gt;50 kg | Small male: &lt;45 kg | Medium male: 45-75 kg | Large male: &gt;75 kg</t>
+      </is>
+    </oc>
+    <nc r="AE4" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4934" sId="1">
+    <oc r="AE41" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE41" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4935" sId="1">
+    <oc r="AE93" t="inlineStr">
+      <is>
+        <t>Multiple</t>
+      </is>
+    </oc>
+    <nc r="AE93" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4936" sId="1">
+    <oc r="AE124" t="inlineStr">
+      <is>
+        <t>"&lt; 4 cm" | "4,01-6 cm" | "6,01-8 cm" | "8,01 -10 cm"</t>
+      </is>
+    </oc>
+    <nc r="AE124" t="inlineStr">
+      <is>
+        <t>No T</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4937" sId="1">
+    <oc r="AE61" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </oc>
+    <nc r="AE61" t="inlineStr">
+      <is>
+        <t>None</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="4938" sId="1">
+    <oc r="AK61" t="inlineStr">
+      <is>
+        <t>Unknown</t>
+      </is>
+    </oc>
+    <nc r="AK61"/>
+  </rcc>
+  <rcc rId="4939" sId="1">
+    <nc r="O61" t="inlineStr">
+      <is>
+        <t>Poorly described</t>
+      </is>
+    </nc>
+  </rcc>
+  <rm rId="4940" sheetId="1" source="O61" destination="P61" sourceSheetId="1">
+    <rfmt sheetId="1" sqref="P61" start="0" length="0">
+      <dxf>
+        <alignment vertical="top" wrapText="1"/>
+      </dxf>
+    </rfmt>
+  </rm>
+  <rcc rId="4941" sId="1">
+    <nc r="O61" t="inlineStr">
+      <is>
+        <t>No Matrix</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{F62F7674-6627-1A45-867D-D051D69B4567}" action="delete"/>
+  <rdn rId="0" localSheetId="1" customView="1" name="Z_F62F7674_6627_1A45_867D_D051D69B4567_.wvu.Cols" hidden="1" oldHidden="1">
+    <formula>Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</formula>
+    <oldFormula>Sheet1!$J:$N,Sheet1!$Q:$T,Sheet1!$X:$AB,Sheet1!$AG:$AJ</oldFormula>
+  </rdn>
+  <rcv guid="{F62F7674-6627-1A45-867D-D051D69B4567}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="1617" sId="1">
@@ -42742,10 +43031,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{793A0E0B-5B7C-5D4D-9067-8B5CCDB21940}" name="Bruce Kendall" id="-1969210306" dateTime="2018-08-30T08:28:48"/>
-</users>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -43047,9 +43334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A97" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H127" sqref="H127"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -43095,13 +43382,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -43206,7 +43493,7 @@
         <v>27</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:40" s="5" customFormat="1">
@@ -43217,7 +43504,7 @@
         <v>43297</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D2" s="14">
         <v>43303</v>
@@ -43235,7 +43522,7 @@
         <v>173</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J2" s="13" t="s">
         <v>363</v>
@@ -43295,14 +43582,14 @@
       </c>
       <c r="AD2" s="13"/>
       <c r="AE2" s="13" t="s">
-        <v>372</v>
+        <v>578</v>
       </c>
       <c r="AF2" s="13"/>
       <c r="AG2" s="12" t="s">
         <v>370</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AI2" s="12" t="s">
         <v>370</v>
@@ -43312,20 +43599,20 @@
         <v>35</v>
       </c>
       <c r="AL2" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AM2" s="13"/>
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="13" customFormat="1" ht="356">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B3" s="18">
         <v>43267</v>
       </c>
       <c r="C3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D3" s="18">
         <v>43267</v>
@@ -43360,27 +43647,27 @@
         <v>11</v>
       </c>
       <c r="V3" s="19" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="W3" t="s">
         <v>14</v>
       </c>
       <c r="X3" s="19" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Y3">
         <v>3</v>
       </c>
       <c r="Z3"/>
       <c r="AA3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AB3"/>
       <c r="AC3" t="s">
         <v>9</v>
       </c>
       <c r="AD3" s="19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AE3" s="20" t="s">
         <v>14</v>
@@ -43409,7 +43696,7 @@
         <v>43297</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D4" s="14">
         <v>43303</v>
@@ -43427,7 +43714,7 @@
         <v>175</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J4" s="13" t="s">
         <v>363</v>
@@ -43464,19 +43751,19 @@
         <v>11</v>
       </c>
       <c r="V4" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="W4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="X4" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="Y4" s="12" t="s">
         <v>32</v>
       </c>
       <c r="Z4" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="AA4" s="13"/>
       <c r="AB4" s="13"/>
@@ -43537,10 +43824,10 @@
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="R5" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="S5"/>
       <c r="T5"/>
@@ -43581,7 +43868,7 @@
         <v>43297</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D6" s="14">
         <v>43302</v>
@@ -43630,13 +43917,13 @@
         <v>16</v>
       </c>
       <c r="X6" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="Y6" s="12">
         <v>8</v>
       </c>
       <c r="Z6" s="12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AA6" s="12"/>
       <c r="AB6" s="13"/>
@@ -43645,14 +43932,14 @@
       </c>
       <c r="AD6" s="13"/>
       <c r="AE6" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AF6" s="13"/>
       <c r="AG6" s="13">
         <v>7</v>
       </c>
       <c r="AH6" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AI6" s="13" t="s">
         <v>32</v>
@@ -43662,7 +43949,7 @@
         <v>21</v>
       </c>
       <c r="AL6" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
@@ -43675,7 +43962,7 @@
         <v>43297</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D7" s="11">
         <v>43302</v>
@@ -43726,13 +44013,13 @@
         <v>11</v>
       </c>
       <c r="V7" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="W7" s="12" t="s">
         <v>16</v>
       </c>
       <c r="X7" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Y7" s="5">
         <v>3</v>
@@ -43767,7 +44054,7 @@
         <v>43297</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D8" s="14">
         <v>43303</v>
@@ -43785,7 +44072,7 @@
         <v>174</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>363</v>
@@ -43826,7 +44113,7 @@
         <v>14</v>
       </c>
       <c r="X8" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="Y8" s="13" t="s">
         <v>367</v>
@@ -43888,10 +44175,10 @@
         <v>9</v>
       </c>
       <c r="Q9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="R9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="U9" t="s">
         <v>11</v>
@@ -43903,10 +44190,10 @@
         <v>9</v>
       </c>
       <c r="AE9" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK9" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -43917,7 +44204,7 @@
         <v>43297</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D10" s="14">
         <v>43303</v>
@@ -43935,7 +44222,7 @@
         <v>171</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>363</v>
@@ -43953,7 +44240,7 @@
         <v>363</v>
       </c>
       <c r="O10" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13" t="s">
@@ -43976,10 +44263,10 @@
         <v>14</v>
       </c>
       <c r="X10" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Y10" s="13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Z10" s="13">
         <v>1</v>
@@ -44011,7 +44298,7 @@
         <v>43297</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="13" t="s">
@@ -44043,10 +44330,10 @@
         <v>363</v>
       </c>
       <c r="O11" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P11" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
@@ -44056,22 +44343,22 @@
         <v>11</v>
       </c>
       <c r="V11" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="W11" s="13" t="s">
         <v>32</v>
       </c>
       <c r="X11" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="Y11" s="13" t="s">
         <v>389</v>
-      </c>
-      <c r="Y11" s="13" t="s">
-        <v>391</v>
       </c>
       <c r="Z11" s="13">
         <v>9</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AB11" s="13"/>
       <c r="AC11" s="13" t="s">
@@ -44099,7 +44386,7 @@
         <v>43297</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D12" s="14">
         <v>43303</v>
@@ -44133,10 +44420,10 @@
         <v>363</v>
       </c>
       <c r="O12" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
@@ -44146,14 +44433,14 @@
         <v>11</v>
       </c>
       <c r="V12" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="W12" s="13" t="s">
         <v>14</v>
       </c>
       <c r="X12" s="13"/>
       <c r="Y12" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Z12" s="13"/>
       <c r="AA12" s="13">
@@ -44175,7 +44462,7 @@
       <c r="AK12" s="13"/>
       <c r="AL12" s="13"/>
       <c r="AM12" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AN12" s="13"/>
     </row>
@@ -44187,7 +44474,7 @@
         <v>43297</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D13" s="14">
         <v>43303</v>
@@ -44205,7 +44492,7 @@
         <v>172</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="J13" s="13" t="s">
         <v>363</v>
@@ -44223,7 +44510,7 @@
         <v>363</v>
       </c>
       <c r="O13" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13" t="s">
@@ -44246,10 +44533,10 @@
         <v>14</v>
       </c>
       <c r="X13" s="13" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Y13" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Z13" s="13">
         <v>2</v>
@@ -44275,7 +44562,7 @@
     </row>
     <row r="14" spans="1:40" ht="170">
       <c r="A14" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B14" s="18">
         <v>43267</v>
@@ -44297,7 +44584,7 @@
         <v>8</v>
       </c>
       <c r="P14" s="19" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="U14" t="s">
         <v>11</v>
@@ -44312,19 +44599,19 @@
       </c>
       <c r="AD14" s="19"/>
       <c r="AE14" s="20" t="s">
+        <v>551</v>
+      </c>
+      <c r="AG14" s="20" t="s">
+        <v>552</v>
+      </c>
+      <c r="AK14" t="s">
         <v>553</v>
-      </c>
-      <c r="AG14" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>555</v>
       </c>
       <c r="AL14" s="19"/>
     </row>
     <row r="15" spans="1:40">
       <c r="A15" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E15" t="s">
         <v>237</v>
@@ -44357,13 +44644,13 @@
         <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="Q15" t="s">
         <v>43</v>
       </c>
       <c r="R15" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U15" t="s">
         <v>11</v>
@@ -44380,7 +44667,7 @@
     </row>
     <row r="16" spans="1:40">
       <c r="A16" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B16" s="18">
         <v>43267</v>
@@ -44420,12 +44707,12 @@
       </c>
       <c r="AL16" s="19"/>
       <c r="AM16" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:40">
       <c r="A17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B17" s="18">
         <v>43267</v>
@@ -44457,22 +44744,22 @@
       </c>
       <c r="AD17" s="19"/>
       <c r="AE17" s="20" t="s">
+        <v>554</v>
+      </c>
+      <c r="AG17" s="20" t="s">
+        <v>555</v>
+      </c>
+      <c r="AK17" t="s">
         <v>556</v>
-      </c>
-      <c r="AG17" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>558</v>
       </c>
       <c r="AL17" s="19"/>
       <c r="AM17" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:40">
       <c r="A18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B18" s="18">
         <v>43267</v>
@@ -44491,7 +44778,7 @@
         <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="P18" s="19"/>
       <c r="U18" t="s">
@@ -44520,7 +44807,7 @@
     </row>
     <row r="19" spans="1:40">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E19" t="s">
         <v>239</v>
@@ -44556,7 +44843,7 @@
         <v>43</v>
       </c>
       <c r="R19" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="U19" t="s">
         <v>10</v>
@@ -44573,7 +44860,7 @@
     </row>
     <row r="20" spans="1:40">
       <c r="A20" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E20" t="s">
         <v>243</v>
@@ -44609,13 +44896,13 @@
         <v>43</v>
       </c>
       <c r="R20" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="S20" t="s">
         <v>45</v>
       </c>
       <c r="T20" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="U20" t="s">
         <v>10</v>
@@ -44627,10 +44914,10 @@
         <v>8</v>
       </c>
       <c r="AE20" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK20" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="21" spans="1:40">
@@ -44641,7 +44928,7 @@
         <v>43297</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D21" s="14">
         <v>43302</v>
@@ -44678,13 +44965,13 @@
         <v>8</v>
       </c>
       <c r="P21" s="13" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="Q21" s="13" t="s">
         <v>45</v>
       </c>
       <c r="R21" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
@@ -44692,18 +44979,18 @@
         <v>10</v>
       </c>
       <c r="V21" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="W21" s="12" t="s">
         <v>15</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="Y21" s="13"/>
       <c r="Z21" s="13"/>
       <c r="AA21" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="AB21" s="13"/>
       <c r="AC21" s="13" t="s">
@@ -44711,7 +44998,7 @@
       </c>
       <c r="AD21" s="13"/>
       <c r="AE21" s="13" t="s">
-        <v>384</v>
+        <v>578</v>
       </c>
       <c r="AF21" s="13"/>
       <c r="AG21" s="13" t="s">
@@ -44723,19 +45010,19 @@
       </c>
       <c r="AJ21" s="13"/>
       <c r="AK21" s="12" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AL21" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AM21" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN21" s="13"/>
     </row>
     <row r="22" spans="1:40">
       <c r="A22" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B22" s="18">
         <v>43267</v>
@@ -44767,22 +45054,22 @@
       </c>
       <c r="AD22" s="19"/>
       <c r="AE22" s="20" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AG22" s="20" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="AK22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="AL22" s="19"/>
       <c r="AM22" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:40">
       <c r="A23" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B23" s="18">
         <v>43267</v>
@@ -44800,7 +45087,12 @@
       <c r="H23" t="s">
         <v>112</v>
       </c>
-      <c r="P23" s="19"/>
+      <c r="O23" t="s">
+        <v>378</v>
+      </c>
+      <c r="P23" t="s">
+        <v>579</v>
+      </c>
       <c r="U23" t="s">
         <v>32</v>
       </c>
@@ -44814,17 +45106,14 @@
       </c>
       <c r="AD23" s="19"/>
       <c r="AE23" s="20" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AG23" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="AK23" t="s">
-        <v>32</v>
-      </c>
       <c r="AL23" s="19"/>
       <c r="AM23" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:40">
@@ -44863,7 +45152,7 @@
         <v>9</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Q24" s="6" t="s">
         <v>46</v>
@@ -44919,7 +45208,7 @@
         <v>85</v>
       </c>
       <c r="J25" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="K25" t="s">
         <v>363</v>
@@ -44937,7 +45226,7 @@
         <v>9</v>
       </c>
       <c r="P25" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="Q25" t="s">
         <v>46</v>
@@ -44999,7 +45288,7 @@
         <v>9</v>
       </c>
       <c r="P26" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="U26" s="6" t="s">
         <v>10</v>
@@ -45108,7 +45397,7 @@
         <v>9</v>
       </c>
       <c r="P28" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Q28" t="s">
         <v>46</v>
@@ -45123,7 +45412,7 @@
         <v>1993</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="W28" s="6" t="s">
         <v>370</v>
@@ -45132,16 +45421,16 @@
         <v>370</v>
       </c>
       <c r="AE28" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK28" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AN28" s="6"/>
     </row>
     <row r="29" spans="1:40">
       <c r="A29" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B29" s="8"/>
       <c r="E29" t="s">
@@ -45175,7 +45464,7 @@
         <v>9</v>
       </c>
       <c r="P29" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="Q29" t="s">
         <v>46</v>
@@ -45190,7 +45479,7 @@
         <v>1985</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="W29" s="8" t="s">
         <v>370</v>
@@ -45205,13 +45494,13 @@
       </c>
       <c r="AD29" s="8"/>
       <c r="AE29" s="8" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AH29" s="8"/>
       <c r="AI29" s="8"/>
       <c r="AJ29" s="8"/>
       <c r="AK29" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL29" s="8"/>
       <c r="AM29" s="8"/>
@@ -45252,7 +45541,7 @@
         <v>9</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>47</v>
@@ -45342,7 +45631,7 @@
     </row>
     <row r="32" spans="1:40">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E32" t="s">
         <v>275</v>
@@ -45378,7 +45667,7 @@
         <v>43</v>
       </c>
       <c r="R32" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="U32" s="6" t="s">
         <v>11</v>
@@ -45546,13 +45835,13 @@
         <v>9</v>
       </c>
       <c r="Q35" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="R35" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="W35" s="6" t="s">
         <v>370</v>
@@ -45561,10 +45850,10 @@
         <v>370</v>
       </c>
       <c r="AE35" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK35" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" spans="1:37">
@@ -45614,7 +45903,7 @@
         <v>364</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="W36" s="6" t="s">
         <v>370</v>
@@ -45623,10 +45912,10 @@
         <v>370</v>
       </c>
       <c r="AE36" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK36" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="37" spans="1:37">
@@ -45661,7 +45950,7 @@
         <v>363</v>
       </c>
       <c r="O37" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q37" t="s">
         <v>364</v>
@@ -45678,7 +45967,7 @@
     </row>
     <row r="38" spans="1:37">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E38" t="s">
         <v>277</v>
@@ -45708,22 +45997,22 @@
         <v>363</v>
       </c>
       <c r="O38" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P38" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Q38" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R38" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="S38" t="s">
         <v>44</v>
       </c>
       <c r="T38" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:37">
@@ -45755,19 +46044,19 @@
         <v>363</v>
       </c>
       <c r="N39" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O39" t="s">
         <v>9</v>
       </c>
       <c r="P39" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Q39" t="s">
         <v>45</v>
       </c>
       <c r="R39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U39" t="s">
         <v>12</v>
@@ -45799,7 +46088,7 @@
         <v>70</v>
       </c>
       <c r="J40" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="K40" t="s">
         <v>363</v>
@@ -45817,7 +46106,7 @@
         <v>9</v>
       </c>
       <c r="P40" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U40" t="s">
         <v>11</v>
@@ -45893,7 +46182,7 @@
     </row>
     <row r="42" spans="1:37">
       <c r="A42" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E42" t="s">
         <v>255</v>
@@ -45923,16 +46212,16 @@
         <v>363</v>
       </c>
       <c r="O42" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P42" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="Q42" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R42" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="U42" t="s">
         <v>11</v>
@@ -45943,7 +46232,7 @@
     </row>
     <row r="43" spans="1:37">
       <c r="A43" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E43" t="s">
         <v>279</v>
@@ -45979,7 +46268,7 @@
         <v>43</v>
       </c>
       <c r="R43" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="U43" t="s">
         <v>12</v>
@@ -45996,7 +46285,7 @@
     </row>
     <row r="44" spans="1:37">
       <c r="A44" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E44" t="s">
         <v>266</v>
@@ -46032,7 +46321,7 @@
         <v>43</v>
       </c>
       <c r="R44" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
@@ -46051,7 +46340,7 @@
     </row>
     <row r="45" spans="1:37">
       <c r="A45" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E45" t="s">
         <v>262</v>
@@ -46087,12 +46376,12 @@
         <v>43</v>
       </c>
       <c r="R45" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="W45" t="s">
         <v>370</v>
@@ -46101,10 +46390,10 @@
         <v>370</v>
       </c>
       <c r="AE45" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK45" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="46" spans="1:37">
@@ -46168,7 +46457,7 @@
     </row>
     <row r="47" spans="1:37">
       <c r="A47" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E47" t="s">
         <v>256</v>
@@ -46204,7 +46493,7 @@
         <v>43</v>
       </c>
       <c r="R47" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
@@ -46218,10 +46507,10 @@
         <v>9</v>
       </c>
       <c r="AE47" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AK47" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="48" spans="1:37">
@@ -46285,7 +46574,7 @@
     </row>
     <row r="49" spans="1:40">
       <c r="A49" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E49" t="s">
         <v>264</v>
@@ -46300,7 +46589,7 @@
         <v>106</v>
       </c>
       <c r="J49" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K49" t="s">
         <v>363</v>
@@ -46321,7 +46610,7 @@
         <v>43</v>
       </c>
       <c r="R49" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="S49" s="7" t="s">
         <v>46</v>
@@ -46339,7 +46628,7 @@
         <v>8</v>
       </c>
       <c r="AE49" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK49" t="s">
         <v>32</v>
@@ -46347,7 +46636,7 @@
     </row>
     <row r="50" spans="1:40">
       <c r="A50" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -46388,7 +46677,7 @@
         <v>43</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="S50" s="6"/>
       <c r="T50" s="6"/>
@@ -46477,15 +46766,15 @@
         <v>9</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK51" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="52" spans="1:40">
       <c r="A52" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E52" t="s">
         <v>276</v>
@@ -46521,13 +46810,13 @@
         <v>43</v>
       </c>
       <c r="R52" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="S52" t="s">
         <v>44</v>
       </c>
       <c r="T52" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="U52" s="6" t="s">
         <v>11</v>
@@ -46539,15 +46828,15 @@
         <v>9</v>
       </c>
       <c r="AE52" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK52" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="53" spans="1:40">
       <c r="A53" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -46594,7 +46883,7 @@
         <v>44</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="U53" s="6" t="s">
         <v>10</v>
@@ -46613,7 +46902,7 @@
       </c>
       <c r="AD53" s="6"/>
       <c r="AE53" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AF53" s="6"/>
       <c r="AG53" s="6"/>
@@ -46621,7 +46910,7 @@
       <c r="AI53" s="6"/>
       <c r="AJ53" s="6"/>
       <c r="AK53" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL53" s="6"/>
       <c r="AM53" s="6"/>
@@ -46674,7 +46963,7 @@
         <v>364</v>
       </c>
       <c r="U54" s="6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="W54" s="6" t="s">
         <v>370</v>
@@ -46683,10 +46972,10 @@
         <v>370</v>
       </c>
       <c r="AE54" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK54" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="55" spans="1:40" s="13" customFormat="1">
@@ -46728,7 +47017,7 @@
         <v>9</v>
       </c>
       <c r="P55" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="Q55"/>
       <c r="R55"/>
@@ -46765,7 +47054,7 @@
     </row>
     <row r="56" spans="1:40">
       <c r="A56" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -46806,7 +47095,7 @@
         <v>43</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="S56" s="6" t="s">
         <v>48</v>
@@ -46831,7 +47120,7 @@
       </c>
       <c r="AD56" s="6"/>
       <c r="AE56" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AF56" s="6"/>
       <c r="AG56" s="6"/>
@@ -46839,7 +47128,7 @@
       <c r="AI56" s="6"/>
       <c r="AJ56" s="6"/>
       <c r="AK56" s="6" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL56" s="6"/>
       <c r="AM56" s="6"/>
@@ -46939,13 +47228,13 @@
         <v>9</v>
       </c>
       <c r="P58" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="Q58" t="s">
         <v>44</v>
       </c>
       <c r="R58" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U58" s="6" t="s">
         <v>11</v>
@@ -46962,7 +47251,7 @@
     </row>
     <row r="59" spans="1:40">
       <c r="A59" s="8" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B59" s="8"/>
       <c r="E59" t="s">
@@ -46996,13 +47285,13 @@
         <v>9</v>
       </c>
       <c r="P59" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="Q59" t="s">
         <v>44</v>
       </c>
       <c r="R59" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S59" t="s">
         <v>49</v>
@@ -47022,17 +47311,17 @@
       <c r="AA59" s="8"/>
       <c r="AB59" s="8"/>
       <c r="AC59" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AD59" s="8"/>
       <c r="AE59" s="6" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AH59" s="8"/>
       <c r="AI59" s="8"/>
       <c r="AJ59" s="8"/>
       <c r="AK59" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL59" s="8"/>
       <c r="AM59" s="8"/>
@@ -47093,15 +47382,15 @@
         <v>8</v>
       </c>
       <c r="AE60" s="6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AK60" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="61" spans="1:40">
       <c r="A61" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E61" t="s">
         <v>283</v>
@@ -47128,7 +47417,7 @@
         <v>363</v>
       </c>
       <c r="N61" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O61" t="s">
         <v>9</v>
@@ -47137,7 +47426,7 @@
         <v>43</v>
       </c>
       <c r="R61" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="U61" s="6" t="s">
         <v>11</v>
@@ -47146,7 +47435,7 @@
         <v>32</v>
       </c>
       <c r="AC61" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AE61" s="6" t="s">
         <v>14</v>
@@ -47154,7 +47443,7 @@
     </row>
     <row r="62" spans="1:40">
       <c r="A62" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E62" t="s">
         <v>265</v>
@@ -47190,7 +47479,7 @@
         <v>43</v>
       </c>
       <c r="R62" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="S62" s="7" t="s">
         <v>46</v>
@@ -47246,7 +47535,7 @@
         <v>9</v>
       </c>
       <c r="P63" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="Q63" t="s">
         <v>46</v>
@@ -47305,10 +47594,10 @@
         <v>363</v>
       </c>
       <c r="O64" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P64" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="Q64" t="s">
         <v>364</v>
@@ -47359,13 +47648,13 @@
         <v>9</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="Q65" s="6" t="s">
         <v>44</v>
       </c>
       <c r="R65" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="U65" s="6" t="s">
         <v>11</v>
@@ -47427,7 +47716,7 @@
         <v>9</v>
       </c>
       <c r="P66" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="Q66" t="s">
         <v>46</v>
@@ -47489,13 +47778,13 @@
         <v>9</v>
       </c>
       <c r="P67" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="Q67" t="s">
         <v>44</v>
       </c>
       <c r="R67" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="U67" s="6" t="s">
         <v>10</v>
@@ -47536,7 +47825,7 @@
         <v>363</v>
       </c>
       <c r="M68" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="N68" t="s">
         <v>363</v>
@@ -47557,7 +47846,7 @@
         <v>364</v>
       </c>
       <c r="U68" s="6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="W68" s="6" t="s">
         <v>370</v>
@@ -47566,15 +47855,15 @@
         <v>370</v>
       </c>
       <c r="AE68" s="6" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="AK68" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="69" spans="1:40">
       <c r="A69" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E69" t="s">
         <v>281</v>
@@ -47604,10 +47893,10 @@
         <v>363</v>
       </c>
       <c r="O69" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P69" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="Q69" s="9" t="s">
         <v>48</v>
@@ -47619,12 +47908,12 @@
         <v>44</v>
       </c>
       <c r="T69" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="70" spans="1:40">
       <c r="A70" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E70" t="s">
         <v>245</v>
@@ -47654,16 +47943,16 @@
         <v>363</v>
       </c>
       <c r="O70" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P70" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="Q70" t="s">
         <v>43</v>
       </c>
       <c r="R70" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="S70" t="s">
         <v>46</v>
@@ -47708,22 +47997,22 @@
         <v>363</v>
       </c>
       <c r="O71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T71" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U71"/>
       <c r="V71"/>
@@ -47778,15 +48067,15 @@
         <v>363</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P72" s="6" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:40" s="6" customFormat="1">
       <c r="A73" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -47820,16 +48109,16 @@
         <v>363</v>
       </c>
       <c r="O73" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P73" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q73" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R73" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
@@ -47889,10 +48178,10 @@
         <v>363</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P74" s="6" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="Q74"/>
       <c r="R74"/>
@@ -47902,7 +48191,7 @@
     </row>
     <row r="75" spans="1:40" s="6" customFormat="1">
       <c r="A75" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -47936,22 +48225,22 @@
         <v>363</v>
       </c>
       <c r="O75" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P75" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q75" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R75" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="S75" t="s">
         <v>45</v>
       </c>
       <c r="T75" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U75"/>
       <c r="V75"/>
@@ -48010,10 +48299,10 @@
         <v>363</v>
       </c>
       <c r="O76" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P76" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="Q76"/>
       <c r="R76"/>
@@ -48076,22 +48365,22 @@
         <v>363</v>
       </c>
       <c r="O77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T77" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U77"/>
       <c r="V77"/>
@@ -48150,7 +48439,7 @@
         <v>363</v>
       </c>
       <c r="O78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P78"/>
       <c r="Q78"/>
@@ -48180,7 +48469,7 @@
     </row>
     <row r="79" spans="1:40" s="6" customFormat="1">
       <c r="A79" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -48214,16 +48503,16 @@
         <v>363</v>
       </c>
       <c r="O79" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P79" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="Q79" t="s">
         <v>43</v>
       </c>
       <c r="R79" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="S79" t="s">
         <v>46</v>
@@ -48288,10 +48577,10 @@
         <v>363</v>
       </c>
       <c r="O80" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P80" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Q80"/>
       <c r="R80"/>
@@ -48320,7 +48609,7 @@
     </row>
     <row r="81" spans="1:40">
       <c r="A81" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E81" t="s">
         <v>253</v>
@@ -48350,16 +48639,16 @@
         <v>363</v>
       </c>
       <c r="O81" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P81" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="Q81" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R81" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="S81" s="7" t="s">
         <v>46</v>
@@ -48370,7 +48659,7 @@
     </row>
     <row r="82" spans="1:40">
       <c r="A82" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E82" t="s">
         <v>238</v>
@@ -48385,7 +48674,7 @@
         <v>88</v>
       </c>
       <c r="J82" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K82" t="s">
         <v>244</v>
@@ -48400,19 +48689,19 @@
         <v>363</v>
       </c>
       <c r="O82" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q82" t="s">
         <v>43</v>
       </c>
       <c r="R82" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="S82" t="s">
         <v>44</v>
       </c>
       <c r="T82" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="83" spans="1:40">
@@ -48432,7 +48721,7 @@
         <v>81</v>
       </c>
       <c r="J83" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K83" t="s">
         <v>363</v>
@@ -48447,10 +48736,10 @@
         <v>363</v>
       </c>
       <c r="O83" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P83" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84" spans="1:40">
@@ -48485,10 +48774,10 @@
         <v>363</v>
       </c>
       <c r="O84" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P84" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="85" spans="1:40">
@@ -48523,10 +48812,10 @@
         <v>363</v>
       </c>
       <c r="O85" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P85" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:40">
@@ -48562,10 +48851,10 @@
         <v>363</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P86" s="6" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
@@ -48619,22 +48908,22 @@
         <v>363</v>
       </c>
       <c r="O87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="88" spans="1:40">
@@ -48669,22 +48958,22 @@
         <v>363</v>
       </c>
       <c r="O88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T88" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="89" spans="1:40">
@@ -48719,15 +49008,15 @@
         <v>363</v>
       </c>
       <c r="O89" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P89" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="90" spans="1:40">
       <c r="A90" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E90" t="s">
         <v>242</v>
@@ -48757,16 +49046,16 @@
         <v>363</v>
       </c>
       <c r="O90" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P90" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q90" t="s">
         <v>43</v>
       </c>
       <c r="R90" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="91" spans="1:40">
@@ -48802,10 +49091,10 @@
         <v>363</v>
       </c>
       <c r="O91" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P91" s="6" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
@@ -48859,10 +49148,10 @@
         <v>363</v>
       </c>
       <c r="O92" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P92" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="93" spans="1:40">
@@ -48897,22 +49186,22 @@
         <v>363</v>
       </c>
       <c r="O93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T93" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="94" spans="1:40">
@@ -48948,10 +49237,10 @@
         <v>363</v>
       </c>
       <c r="O94" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P94" s="6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
@@ -49009,10 +49298,10 @@
         <v>363</v>
       </c>
       <c r="O95" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P95" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
@@ -49072,10 +49361,10 @@
         <v>363</v>
       </c>
       <c r="O96" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P96" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
@@ -49129,10 +49418,10 @@
         <v>363</v>
       </c>
       <c r="O97" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P97" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:40">
@@ -49168,10 +49457,10 @@
         <v>363</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P98" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
@@ -49195,7 +49484,7 @@
     </row>
     <row r="99" spans="1:40">
       <c r="A99" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E99" t="s">
         <v>241</v>
@@ -49222,25 +49511,25 @@
         <v>363</v>
       </c>
       <c r="N99" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O99" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P99" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="Q99" t="s">
         <v>43</v>
       </c>
       <c r="R99" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S99" t="s">
         <v>44</v>
       </c>
       <c r="T99" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="100" spans="1:40">
@@ -49276,10 +49565,10 @@
         <v>363</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P100" s="6" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
@@ -49333,22 +49622,22 @@
         <v>363</v>
       </c>
       <c r="O101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T101" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="1:40">
@@ -49368,7 +49657,7 @@
         <v>75</v>
       </c>
       <c r="J102" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="K102" t="s">
         <v>363</v>
@@ -49383,10 +49672,10 @@
         <v>363</v>
       </c>
       <c r="O102" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P102" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:40">
@@ -49421,22 +49710,22 @@
         <v>363</v>
       </c>
       <c r="O103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T103" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="104" spans="1:40">
@@ -49471,22 +49760,22 @@
         <v>363</v>
       </c>
       <c r="O104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="Q104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="R104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="S104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="T104" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="105" spans="1:40">
@@ -49507,7 +49796,7 @@
         <v>134</v>
       </c>
       <c r="J105" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="K105" s="6" t="s">
         <v>363</v>
@@ -49522,10 +49811,10 @@
         <v>363</v>
       </c>
       <c r="O105" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P105" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
@@ -49549,7 +49838,7 @@
     </row>
     <row r="106" spans="1:40">
       <c r="A106" s="8" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B106" s="8"/>
       <c r="C106" s="6"/>
@@ -49583,7 +49872,7 @@
         <v>363</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
@@ -49637,16 +49926,16 @@
         <v>363</v>
       </c>
       <c r="M107" s="22" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="N107" t="s">
         <v>363</v>
       </c>
       <c r="O107" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P107" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="Q107" t="s">
         <v>47</v>
@@ -49657,7 +49946,7 @@
     </row>
     <row r="108" spans="1:40">
       <c r="A108" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E108" t="s">
         <v>270</v>
@@ -49690,13 +49979,13 @@
         <v>8</v>
       </c>
       <c r="P108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q108" s="7" t="s">
         <v>44</v>
       </c>
       <c r="R108" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U108" t="s">
         <v>11</v>
@@ -49746,13 +50035,13 @@
         <v>8</v>
       </c>
       <c r="P109" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="Q109" t="s">
         <v>45</v>
       </c>
       <c r="R109" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="U109" t="s">
         <v>11</v>
@@ -49802,7 +50091,7 @@
         <v>8</v>
       </c>
       <c r="P110" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="U110" t="s">
         <v>11</v>
@@ -49819,7 +50108,7 @@
     </row>
     <row r="111" spans="1:40">
       <c r="A111" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E111" t="s">
         <v>268</v>
@@ -49852,13 +50141,13 @@
         <v>8</v>
       </c>
       <c r="P111" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="Q111" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R111" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
@@ -49872,7 +50161,7 @@
         <v>8</v>
       </c>
       <c r="AE111" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="AK111" t="s">
         <v>32</v>
@@ -49880,7 +50169,7 @@
     </row>
     <row r="112" spans="1:40">
       <c r="A112" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E112" t="s">
         <v>261</v>
@@ -49910,21 +50199,21 @@
         <v>363</v>
       </c>
       <c r="O112" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P112" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="Q112" s="7" t="s">
         <v>44</v>
       </c>
       <c r="R112" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="113" spans="1:40">
       <c r="A113" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E113" t="s">
         <v>249</v>
@@ -49957,19 +50246,19 @@
         <v>8</v>
       </c>
       <c r="P113" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="Q113" t="s">
         <v>43</v>
       </c>
       <c r="R113" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="S113" t="s">
         <v>44</v>
       </c>
       <c r="T113" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="U113" t="s">
         <v>11</v>
@@ -50019,7 +50308,7 @@
         <v>8</v>
       </c>
       <c r="P114" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="Q114" t="s">
         <v>364</v>
@@ -50085,7 +50374,7 @@
         <v>8</v>
       </c>
       <c r="P115" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="Q115" s="9" t="s">
         <v>46</v>
@@ -50116,21 +50405,23 @@
       </c>
       <c r="AD115" s="6"/>
       <c r="AE115" s="6" t="s">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="AF115" s="6"/>
       <c r="AG115" s="6"/>
       <c r="AH115" s="6"/>
       <c r="AI115" s="6"/>
       <c r="AJ115" s="6"/>
-      <c r="AK115" s="6"/>
+      <c r="AK115" s="6" t="s">
+        <v>563</v>
+      </c>
       <c r="AL115" s="6"/>
       <c r="AM115" s="6"/>
       <c r="AN115" s="6"/>
     </row>
     <row r="116" spans="1:40">
       <c r="A116" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E116" t="s">
         <v>246</v>
@@ -50160,27 +50451,27 @@
         <v>363</v>
       </c>
       <c r="O116" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P116" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="Q116" t="s">
         <v>43</v>
       </c>
       <c r="R116" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="S116" t="s">
         <v>44</v>
       </c>
       <c r="T116" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="117" spans="1:40">
       <c r="A117" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B117" s="6"/>
       <c r="C117" s="6"/>
@@ -50202,7 +50493,7 @@
         <v>363</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L117" s="6" t="s">
         <v>363</v>
@@ -50214,22 +50505,22 @@
         <v>363</v>
       </c>
       <c r="O117" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P117" s="6" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q117" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R117" s="6" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="S117" s="6" t="s">
         <v>45</v>
       </c>
       <c r="T117" s="6" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
@@ -50254,7 +50545,7 @@
     </row>
     <row r="118" spans="1:40">
       <c r="A118" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E118" t="s">
         <v>274</v>
@@ -50281,30 +50572,30 @@
         <v>363</v>
       </c>
       <c r="N118" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O118" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P118" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Q118" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R118" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="S118" t="s">
         <v>44</v>
       </c>
       <c r="T118" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="119" spans="1:40">
       <c r="A119" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E119" t="s">
         <v>251</v>
@@ -50334,21 +50625,21 @@
         <v>363</v>
       </c>
       <c r="O119" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P119" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q119" t="s">
         <v>43</v>
       </c>
       <c r="R119" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="120" spans="1:40">
       <c r="A120" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E120" t="s">
         <v>260</v>
@@ -50378,23 +50669,23 @@
         <v>363</v>
       </c>
       <c r="O120" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P120" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="Q120" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R120" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
     </row>
     <row r="121" spans="1:40">
       <c r="A121" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E121" t="s">
         <v>252</v>
@@ -50427,13 +50718,13 @@
         <v>8</v>
       </c>
       <c r="P121" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="Q121" s="7" t="s">
         <v>43</v>
       </c>
       <c r="R121" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
@@ -50447,15 +50738,15 @@
         <v>9</v>
       </c>
       <c r="AE121" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AK121" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:40" s="13" customFormat="1">
       <c r="A122" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B122"/>
       <c r="C122"/>
@@ -50489,16 +50780,16 @@
         <v>363</v>
       </c>
       <c r="O122" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P122" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="Q122" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R122" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S122"/>
       <c r="T122"/>
@@ -50525,7 +50816,7 @@
     </row>
     <row r="123" spans="1:40" s="13" customFormat="1">
       <c r="A123" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B123" s="6"/>
       <c r="C123" s="6"/>
@@ -50559,22 +50850,22 @@
         <v>363</v>
       </c>
       <c r="O123" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P123" s="6" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="Q123" s="9" t="s">
         <v>43</v>
       </c>
       <c r="R123" s="6" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="S123" s="6" t="s">
         <v>45</v>
       </c>
       <c r="T123" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
@@ -50627,16 +50918,16 @@
         <v>363</v>
       </c>
       <c r="M124" s="22" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="N124" t="s">
         <v>363</v>
       </c>
       <c r="O124" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P124" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="Q124" t="s">
         <v>46</v>
@@ -50707,10 +50998,10 @@
         <v>363</v>
       </c>
       <c r="O125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="P125" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="Q125" t="s">
         <v>364</v>
@@ -50747,7 +51038,7 @@
     </row>
     <row r="126" spans="1:40" s="13" customFormat="1">
       <c r="A126" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B126"/>
       <c r="C126"/>
@@ -50813,8 +51104,8 @@
   </sortState>
   <customSheetViews>
     <customSheetView guid="{F62F7674-6627-1A45-867D-D051D69B4567}" hiddenColumns="1" topLeftCell="G1">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O69" sqref="O69"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W59" sqref="W59"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
     </customSheetView>
